--- a/capiq_data/in_process_data/IQ33715.xlsx
+++ b/capiq_data/in_process_data/IQ33715.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59D6D46-94AB-4096-9260-F7A8A95A4A7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFE58F-31AA-4930-8979-92340357F1B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"2bc79ba3-9e60-4c51-bc0e-01a44e1f7083"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"da51b113-3cbf-4438-badb-510864839786"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-14.597</v>
+        <v>-8.4550000000000001</v>
       </c>
       <c r="D2">
-        <v>133.67500000000001</v>
+        <v>19.137</v>
       </c>
       <c r="E2">
-        <v>81.917000000000002</v>
+        <v>13.835000000000001</v>
       </c>
       <c r="F2">
-        <v>7.8639999999999999</v>
+        <v>-6.6520000000000001</v>
       </c>
       <c r="G2">
-        <v>357.62200000000001</v>
+        <v>134.142</v>
       </c>
       <c r="H2">
-        <v>1089.432</v>
+        <v>208.274</v>
       </c>
       <c r="I2">
-        <v>15.589</v>
+        <v>2.59</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.466</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>109.056</v>
+        <v>13.786</v>
       </c>
       <c r="O2">
-        <v>561.61699999999996</v>
+        <v>26.143999999999998</v>
       </c>
       <c r="P2">
-        <v>162.85900000000001</v>
+        <v>2.681</v>
       </c>
       <c r="Q2">
-        <v>-212.714</v>
+        <v>-18.664000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1395</v>
+        <v>491</v>
       </c>
       <c r="T2">
-        <v>527.81500000000005</v>
+        <v>182.13</v>
       </c>
       <c r="U2">
-        <v>112.572</v>
+        <v>30.978000000000002</v>
       </c>
       <c r="V2">
-        <v>-40.850999999999999</v>
+        <v>-3.77</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>182.75899999999999</v>
+        <v>-0.161</v>
       </c>
       <c r="Y2">
-        <v>162.184</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="Z2">
-        <v>-318.21899999999999</v>
+        <v>-13.568</v>
       </c>
       <c r="AA2">
-        <v>-14.597</v>
+        <v>-8.4550000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-43.447000000000003</v>
+        <v>-13.037000000000001</v>
       </c>
       <c r="D3">
-        <v>112.20399999999999</v>
+        <v>6.3129999999999997</v>
       </c>
       <c r="E3">
-        <v>84.391000000000005</v>
+        <v>8.6080000000000005</v>
       </c>
       <c r="F3">
-        <v>-17.57</v>
+        <v>-12.68</v>
       </c>
       <c r="G3">
-        <v>325.50099999999998</v>
+        <v>286.63600000000002</v>
       </c>
       <c r="H3">
-        <v>1074.2929999999999</v>
+        <v>349.185</v>
       </c>
       <c r="I3">
-        <v>16.146000000000001</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.30599999999999999</v>
+        <v>-0.23</v>
       </c>
       <c r="N3">
-        <v>112.252</v>
+        <v>13.855</v>
       </c>
       <c r="O3">
-        <v>556.202</v>
+        <v>24.774000000000001</v>
       </c>
       <c r="P3">
-        <v>160.15100000000001</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="Q3">
-        <v>22.803999999999998</v>
+        <v>152.642</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>1432</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>518.09100000000001</v>
+        <v>324.411</v>
       </c>
       <c r="U3">
-        <v>135.376</v>
+        <v>183.62</v>
       </c>
       <c r="V3">
-        <v>-10.58</v>
+        <v>-8.3970000000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>13.037000000000001</v>
+        <v>154.15199999999999</v>
       </c>
       <c r="Y3">
-        <v>159.35300000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="Z3">
-        <v>42.481000000000002</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AA3">
-        <v>-43.447000000000003</v>
+        <v>-13.037000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-62.505000000000003</v>
+        <v>-14.834</v>
       </c>
       <c r="D4">
-        <v>107.81</v>
+        <v>5.7789999999999999</v>
       </c>
       <c r="E4">
-        <v>81.643000000000001</v>
+        <v>4.38</v>
       </c>
       <c r="F4">
-        <v>-35.734000000000002</v>
+        <v>-15.702</v>
       </c>
       <c r="G4">
-        <v>413.27300000000002</v>
+        <v>252.78200000000001</v>
       </c>
       <c r="H4">
-        <v>1046.864</v>
+        <v>336.29500000000002</v>
       </c>
       <c r="I4">
-        <v>25.954999999999998</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>135.86799999999999</v>
+        <v>12.926</v>
       </c>
       <c r="O4">
-        <v>568.83000000000004</v>
+        <v>23.001000000000001</v>
       </c>
       <c r="P4">
-        <v>160.334</v>
+        <v>2.3170000000000002</v>
       </c>
       <c r="Q4">
-        <v>118.93600000000001</v>
+        <v>-40.664999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>1464</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>478.03399999999999</v>
+        <v>313.29399999999998</v>
       </c>
       <c r="U4">
-        <v>254.31200000000001</v>
+        <v>142.95500000000001</v>
       </c>
       <c r="V4">
-        <v>-34.049999999999997</v>
+        <v>-9.3780000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>10.051</v>
+        <v>3.29</v>
       </c>
       <c r="Y4">
-        <v>159.45699999999999</v>
+        <v>0.316</v>
       </c>
       <c r="Z4">
-        <v>158.512</v>
+        <v>-32.363999999999997</v>
       </c>
       <c r="AA4">
-        <v>-62.505000000000003</v>
+        <v>-14.834</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-62.365000000000002</v>
+        <v>-19.931000000000001</v>
       </c>
       <c r="D5">
-        <v>102.833</v>
+        <v>5.48</v>
       </c>
       <c r="E5">
-        <v>74.787999999999997</v>
+        <v>3.5470000000000002</v>
       </c>
       <c r="F5">
-        <v>-25.541</v>
+        <v>-20.832999999999998</v>
       </c>
       <c r="G5">
-        <v>339.87200000000001</v>
+        <v>252.727</v>
       </c>
       <c r="H5">
-        <v>983.03099999999995</v>
+        <v>318.613</v>
       </c>
       <c r="I5">
-        <v>17.309000000000001</v>
+        <v>2.5110000000000001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>133.23500000000001</v>
+        <v>14.414999999999999</v>
       </c>
       <c r="O5">
-        <v>554.77800000000002</v>
+        <v>23.742000000000001</v>
       </c>
       <c r="P5">
-        <v>160.40199999999999</v>
+        <v>2.169</v>
       </c>
       <c r="Q5">
-        <v>-47.917000000000002</v>
+        <v>-42.981000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>428.25299999999999</v>
+        <v>294.87099999999998</v>
       </c>
       <c r="U5">
-        <v>206.39500000000001</v>
+        <v>99.974000000000004</v>
       </c>
       <c r="V5">
-        <v>-46.734999999999999</v>
+        <v>-21.890999999999998</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-0.27900000000000003</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="Y5">
-        <v>159.482</v>
+        <v>0.23</v>
       </c>
       <c r="Z5">
-        <v>7.9989999999999997</v>
+        <v>-19.721</v>
       </c>
       <c r="AA5">
-        <v>-62.365000000000002</v>
+        <v>-19.931000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-53.442999999999998</v>
+        <v>-28.378</v>
       </c>
       <c r="D6">
-        <v>122.977</v>
+        <v>4.4009999999999998</v>
       </c>
       <c r="E6">
-        <v>103.035</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="F6">
-        <v>-9.0530000000000008</v>
+        <v>-26.861000000000001</v>
       </c>
       <c r="G6">
-        <v>665.77700000000004</v>
+        <v>394.18599999999998</v>
       </c>
       <c r="H6">
-        <v>1323.5830000000001</v>
+        <v>495.39699999999999</v>
       </c>
       <c r="I6">
-        <v>27.736000000000001</v>
+        <v>3.0070000000000001</v>
       </c>
       <c r="J6">
-        <v>275.01900000000001</v>
+        <v>200</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>148.27099999999999</v>
+        <v>22.021999999999998</v>
       </c>
       <c r="O6">
-        <v>837.851</v>
+        <v>229.042</v>
       </c>
       <c r="P6">
-        <v>438.03899999999999</v>
+        <v>200.57599999999999</v>
       </c>
       <c r="Q6">
-        <v>277.21499999999997</v>
+        <v>147.41900000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>1704</v>
+        <v>575</v>
       </c>
       <c r="T6">
-        <v>485.73200000000003</v>
+        <v>266.35500000000002</v>
       </c>
       <c r="U6">
-        <v>483.61</v>
+        <v>247.393</v>
       </c>
       <c r="V6">
-        <v>-50.317</v>
+        <v>-17.654</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>361.44</v>
+        <v>191.28</v>
       </c>
       <c r="Y6">
-        <v>162.01400000000001</v>
+        <v>0.15</v>
       </c>
       <c r="Z6">
-        <v>-23.027000000000001</v>
+        <v>8.0129999999999999</v>
       </c>
       <c r="AA6">
-        <v>-53.442999999999998</v>
+        <v>-28.378</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>11.651</v>
+        <v>-25.445</v>
       </c>
       <c r="D7">
-        <v>231.78899999999999</v>
+        <v>4.9409999999999998</v>
       </c>
       <c r="E7">
-        <v>238.34700000000001</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="F7">
-        <v>80.629000000000005</v>
+        <v>-21.795000000000002</v>
       </c>
       <c r="G7">
-        <v>696.91499999999996</v>
+        <v>337.11799999999999</v>
       </c>
       <c r="H7">
-        <v>1350.1590000000001</v>
+        <v>471.86500000000001</v>
       </c>
       <c r="I7">
-        <v>25.39</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="J7">
-        <v>280.20600000000002</v>
+        <v>200</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.5</v>
+        <v>-0.111</v>
       </c>
       <c r="N7">
-        <v>160.386</v>
+        <v>22.943999999999999</v>
       </c>
       <c r="O7">
-        <v>846.13499999999999</v>
+        <v>229.381</v>
       </c>
       <c r="P7">
-        <v>440.83300000000003</v>
+        <v>200.465</v>
       </c>
       <c r="Q7">
-        <v>-89.025000000000006</v>
+        <v>-111.92400000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>1729</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>504.024</v>
+        <v>242.48400000000001</v>
       </c>
       <c r="U7">
-        <v>394.58499999999998</v>
+        <v>135.46899999999999</v>
       </c>
       <c r="V7">
-        <v>-87.040999999999997</v>
+        <v>-26.053999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-17.75</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="Y7">
-        <v>159.53399999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="Z7">
-        <v>27.283999999999999</v>
+        <v>-82.927000000000007</v>
       </c>
       <c r="AA7">
-        <v>11.651</v>
+        <v>-25.445</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>76.742999999999995</v>
+        <v>-30.422999999999998</v>
       </c>
       <c r="D8">
-        <v>304.399</v>
+        <v>5.569</v>
       </c>
       <c r="E8">
-        <v>435.38</v>
+        <v>2.9860000000000002</v>
       </c>
       <c r="F8">
-        <v>135.18299999999999</v>
+        <v>-26.992999999999999</v>
       </c>
       <c r="G8">
-        <v>769.19299999999998</v>
+        <v>309.70499999999998</v>
       </c>
       <c r="H8">
-        <v>1457.5</v>
+        <v>440.45100000000002</v>
       </c>
       <c r="I8">
-        <v>25.672000000000001</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="J8">
-        <v>285.49099999999999</v>
+        <v>200</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>183.22</v>
+        <v>21.477</v>
       </c>
       <c r="O8">
-        <v>862.84299999999996</v>
+        <v>227.292</v>
       </c>
       <c r="P8">
-        <v>446.23200000000003</v>
+        <v>200.32400000000001</v>
       </c>
       <c r="Q8">
-        <v>-222.642</v>
+        <v>-66.094999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>1756</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>594.65700000000004</v>
+        <v>213.15899999999999</v>
       </c>
       <c r="U8">
-        <v>171.94300000000001</v>
+        <v>69.373999999999995</v>
       </c>
       <c r="V8">
-        <v>-78.376999999999995</v>
+        <v>-29.588999999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-5.077</v>
+        <v>0.12</v>
       </c>
       <c r="Y8">
-        <v>159.55799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-126.31</v>
+        <v>-35.244999999999997</v>
       </c>
       <c r="AA8">
-        <v>76.742999999999995</v>
+        <v>-30.422999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>191.46799999999999</v>
+        <v>-32.816000000000003</v>
       </c>
       <c r="D9">
-        <v>427.68700000000001</v>
+        <v>6.5659999999999998</v>
       </c>
       <c r="E9">
-        <v>601.27099999999996</v>
+        <v>4.5209999999999999</v>
       </c>
       <c r="F9">
-        <v>249.24700000000001</v>
+        <v>-29.366</v>
       </c>
       <c r="G9">
-        <v>948.60299999999995</v>
+        <v>313.82299999999998</v>
       </c>
       <c r="H9">
-        <v>1660.615</v>
+        <v>418.59199999999998</v>
       </c>
       <c r="I9">
-        <v>21.943000000000001</v>
+        <v>4.09</v>
       </c>
       <c r="J9">
-        <v>290.959</v>
+        <v>200</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>178.56800000000001</v>
+        <v>32.654000000000003</v>
       </c>
       <c r="O9">
-        <v>854.59100000000001</v>
+        <v>237.804</v>
       </c>
       <c r="P9">
-        <v>451.73500000000001</v>
+        <v>200.23699999999999</v>
       </c>
       <c r="Q9">
-        <v>-52.945</v>
+        <v>6.2</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>1791</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>806.024</v>
+        <v>180.78800000000001</v>
       </c>
       <c r="U9">
-        <v>118.998</v>
+        <v>75.573999999999998</v>
       </c>
       <c r="V9">
-        <v>-2.3820000000000001</v>
+        <v>-23.853999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-1.8089999999999999</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="Y9">
-        <v>159.499</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-38.457000000000001</v>
+        <v>38.42</v>
       </c>
       <c r="AA9">
-        <v>191.46799999999999</v>
+        <v>-32.816000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>470.40699999999998</v>
+        <v>-35.692999999999998</v>
       </c>
       <c r="D10">
-        <v>414.60199999999998</v>
+        <v>4.9119999999999999</v>
       </c>
       <c r="E10">
-        <v>693.12</v>
+        <v>4.0170000000000003</v>
       </c>
       <c r="F10">
-        <v>203.40899999999999</v>
+        <v>-31.294</v>
       </c>
       <c r="G10">
-        <v>1206.0119999999999</v>
+        <v>276.94799999999998</v>
       </c>
       <c r="H10">
-        <v>2080.4899999999998</v>
+        <v>391.57400000000001</v>
       </c>
       <c r="I10">
-        <v>38.933999999999997</v>
+        <v>13.297000000000001</v>
       </c>
       <c r="J10">
-        <v>296.51799999999997</v>
+        <v>200</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>163.55000000000001</v>
+        <v>40.118000000000002</v>
       </c>
       <c r="O10">
-        <v>835.10500000000002</v>
+        <v>245.59299999999999</v>
       </c>
       <c r="P10">
-        <v>458.637</v>
+        <v>200.15</v>
       </c>
       <c r="Q10">
-        <v>111.27800000000001</v>
+        <v>4.5030000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>1950</v>
+        <v>669</v>
       </c>
       <c r="T10">
-        <v>1245.385</v>
+        <v>145.98099999999999</v>
       </c>
       <c r="U10">
-        <v>230.27600000000001</v>
+        <v>80.076999999999998</v>
       </c>
       <c r="V10">
-        <v>93.185000000000002</v>
+        <v>-31.026</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-73.010000000000005</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="Y10">
-        <v>160.745</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>106.29900000000001</v>
+        <v>44.606000000000002</v>
       </c>
       <c r="AA10">
-        <v>470.40699999999998</v>
+        <v>-35.692999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>98.873999999999995</v>
+        <v>-30.321000000000002</v>
       </c>
       <c r="D11">
-        <v>439.66399999999999</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="E11">
-        <v>802.63800000000003</v>
+        <v>7.2380000000000004</v>
       </c>
       <c r="F11">
-        <v>230.31</v>
+        <v>-25.131</v>
       </c>
       <c r="G11">
-        <v>1307.1220000000001</v>
+        <v>329.74</v>
       </c>
       <c r="H11">
-        <v>2275.998</v>
+        <v>430.44099999999997</v>
       </c>
       <c r="I11">
-        <v>24.728999999999999</v>
+        <v>9.5150000000000006</v>
       </c>
       <c r="J11">
-        <v>302.26799999999997</v>
+        <v>200</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.64900000000000002</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="N11">
-        <v>197.244</v>
+        <v>59.366</v>
       </c>
       <c r="O11">
-        <v>869.65</v>
+        <v>264.82600000000002</v>
       </c>
       <c r="P11">
-        <v>462.74799999999999</v>
+        <v>200.06100000000001</v>
       </c>
       <c r="Q11">
-        <v>-49.914000000000001</v>
+        <v>111.509</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>1996</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1406.348</v>
+        <v>165.61500000000001</v>
       </c>
       <c r="U11">
-        <v>180.36199999999999</v>
+        <v>191.58600000000001</v>
       </c>
       <c r="V11">
-        <v>86.248000000000005</v>
+        <v>1.1930000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>11.523</v>
+        <v>48.497</v>
       </c>
       <c r="Y11">
-        <v>159.00700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-126.482</v>
+        <v>81.822999999999993</v>
       </c>
       <c r="AA11">
-        <v>98.873999999999995</v>
+        <v>-30.321000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>87.376000000000005</v>
+        <v>-30.36</v>
       </c>
       <c r="D12">
-        <v>457.642</v>
+        <v>8.9079999999999995</v>
       </c>
       <c r="E12">
-        <v>876.01599999999996</v>
+        <v>7.8710000000000004</v>
       </c>
       <c r="F12">
-        <v>230.566</v>
+        <v>-25.068000000000001</v>
       </c>
       <c r="G12">
-        <v>1561.3620000000001</v>
+        <v>295.14999999999998</v>
       </c>
       <c r="H12">
-        <v>2378.259</v>
+        <v>395.54700000000003</v>
       </c>
       <c r="I12">
-        <v>24.417999999999999</v>
+        <v>3.984</v>
       </c>
       <c r="J12">
-        <v>308.11599999999999</v>
+        <v>205.14699999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>203.80199999999999</v>
+        <v>49.064</v>
       </c>
       <c r="O12">
-        <v>884.92200000000003</v>
+        <v>257.70400000000001</v>
       </c>
       <c r="P12">
-        <v>473.30200000000002</v>
+        <v>205.14699999999999</v>
       </c>
       <c r="Q12">
-        <v>201.31299999999999</v>
+        <v>-61.927</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>2039</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1493.337</v>
+        <v>137.84299999999999</v>
       </c>
       <c r="U12">
-        <v>381.67500000000001</v>
+        <v>129.65899999999999</v>
       </c>
       <c r="V12">
-        <v>128.16399999999999</v>
+        <v>-40.707000000000001</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-43.481000000000002</v>
+        <v>5.5759999999999996</v>
       </c>
       <c r="Y12">
-        <v>164.392</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>151.083</v>
+        <v>-27.315000000000001</v>
       </c>
       <c r="AA12">
-        <v>87.376000000000005</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>141.30600000000001</v>
+        <v>-27.4</v>
       </c>
       <c r="D13">
-        <v>597.02700000000004</v>
+        <v>17.391999999999999</v>
       </c>
       <c r="E13">
-        <v>992.82399999999996</v>
+        <v>9.1969999999999992</v>
       </c>
       <c r="F13">
-        <v>334.40899999999999</v>
+        <v>-22.102</v>
       </c>
       <c r="G13">
-        <v>1634.16</v>
+        <v>404.37799999999999</v>
       </c>
       <c r="H13">
-        <v>2640.415</v>
+        <v>500.50099999999998</v>
       </c>
       <c r="I13">
-        <v>31.193999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J13">
-        <v>314.16199999999998</v>
+        <v>200</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.2959999999999994</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>268.72699999999998</v>
+        <v>54.735999999999997</v>
       </c>
       <c r="O13">
-        <v>950.24400000000003</v>
+        <v>344.29899999999998</v>
       </c>
       <c r="P13">
-        <v>482.17500000000001</v>
+        <v>209.29599999999999</v>
       </c>
       <c r="Q13">
-        <v>-118.464</v>
+        <v>168.958</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>2098</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1690.171</v>
+        <v>156.202</v>
       </c>
       <c r="U13">
-        <v>263.21100000000001</v>
+        <v>298.61700000000002</v>
       </c>
       <c r="V13">
-        <v>92.454999999999998</v>
+        <v>61.81</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>3.5329999999999999</v>
+        <v>49.523000000000003</v>
       </c>
       <c r="Y13">
-        <v>167.21899999999999</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-182.761</v>
+        <v>61.012</v>
       </c>
       <c r="AA13">
-        <v>141.30600000000001</v>
+        <v>-27.4</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>96.805999999999997</v>
+        <v>-19.376999999999999</v>
       </c>
       <c r="D14">
-        <v>610.41200000000003</v>
+        <v>21.271999999999998</v>
       </c>
       <c r="E14">
-        <v>954.96699999999998</v>
+        <v>15.529</v>
       </c>
       <c r="F14">
-        <v>294.15800000000002</v>
+        <v>-12.901999999999999</v>
       </c>
       <c r="G14">
-        <v>1796.934</v>
+        <v>320.20699999999999</v>
       </c>
       <c r="H14">
-        <v>2951.0129999999999</v>
+        <v>479.55500000000001</v>
       </c>
       <c r="I14">
-        <v>61.936</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="J14">
-        <v>320.315</v>
+        <v>200</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.817</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>298.83499999999998</v>
+        <v>72.923000000000002</v>
       </c>
       <c r="O14">
-        <v>998.93700000000001</v>
+        <v>341.91199999999998</v>
       </c>
       <c r="P14">
-        <v>505.63799999999998</v>
+        <v>213.81700000000001</v>
       </c>
       <c r="Q14">
-        <v>272.39699999999999</v>
+        <v>-180.33199999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2340</v>
+        <v>644</v>
       </c>
       <c r="T14">
-        <v>1952.076</v>
+        <v>137.643</v>
       </c>
       <c r="U14">
-        <v>535.60799999999995</v>
+        <v>118.285</v>
       </c>
       <c r="V14">
-        <v>276.78100000000001</v>
+        <v>-28.428999999999998</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>105.56399999999999</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="Y14">
-        <v>184.38399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-40.972000000000001</v>
+        <v>-160.70599999999999</v>
       </c>
       <c r="AA14">
-        <v>96.805999999999997</v>
+        <v>-19.376999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>68.305000000000007</v>
+        <v>64.531999999999996</v>
       </c>
       <c r="D15">
-        <v>625.74</v>
+        <v>61.99</v>
       </c>
       <c r="E15">
-        <v>1047.4960000000001</v>
+        <v>59.881999999999998</v>
       </c>
       <c r="F15">
-        <v>294.78899999999999</v>
+        <v>27.584</v>
       </c>
       <c r="G15">
-        <v>1871.049</v>
+        <v>392.28399999999999</v>
       </c>
       <c r="H15">
-        <v>3260.3960000000002</v>
+        <v>506.178</v>
       </c>
       <c r="I15">
-        <v>32.692</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="J15">
-        <v>326.673</v>
+        <v>200</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.26200000000000001</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>305.06799999999998</v>
+        <v>36.335000000000001</v>
       </c>
       <c r="O15">
-        <v>1049.1479999999999</v>
+        <v>302.072</v>
       </c>
       <c r="P15">
-        <v>531.11300000000006</v>
+        <v>200</v>
       </c>
       <c r="Q15">
-        <v>-73.75</v>
+        <v>58.75</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>2389</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>2211.248</v>
+        <v>204.10599999999999</v>
       </c>
       <c r="U15">
-        <v>461.858</v>
+        <v>174.03399999999999</v>
       </c>
       <c r="V15">
-        <v>53.527000000000001</v>
+        <v>-18.582000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>108.95399999999999</v>
+        <v>4.101</v>
       </c>
       <c r="Y15">
-        <v>203.38</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-171.40899999999999</v>
+        <v>74.215999999999994</v>
       </c>
       <c r="AA15">
-        <v>68.305000000000007</v>
+        <v>64.531999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>96.350999999999999</v>
+        <v>-14.548999999999999</v>
       </c>
       <c r="D16">
-        <v>665.7</v>
+        <v>28.417999999999999</v>
       </c>
       <c r="E16">
-        <v>893.92399999999998</v>
+        <v>25.396999999999998</v>
       </c>
       <c r="F16">
-        <v>324.82</v>
+        <v>-8.4079999999999995</v>
       </c>
       <c r="G16">
-        <v>1918.6949999999999</v>
+        <v>383.33</v>
       </c>
       <c r="H16">
-        <v>3456.078</v>
+        <v>488.17399999999998</v>
       </c>
       <c r="I16">
-        <v>47.231000000000002</v>
+        <v>3.548</v>
       </c>
       <c r="J16">
-        <v>282.26100000000002</v>
+        <v>200</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>351.57799999999997</v>
+        <v>37.372</v>
       </c>
       <c r="O16">
-        <v>1087.2360000000001</v>
+        <v>298.04399999999998</v>
       </c>
       <c r="P16">
-        <v>517.846</v>
+        <v>200</v>
       </c>
       <c r="Q16">
-        <v>138.27699999999999</v>
+        <v>-51.206000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>2469</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2368.8420000000001</v>
+        <v>190.13</v>
       </c>
       <c r="U16">
-        <v>600.13499999999999</v>
+        <v>122.833</v>
       </c>
       <c r="V16">
-        <v>336.41199999999998</v>
+        <v>17.457999999999998</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-80.012</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="Y16">
-        <v>234.52500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-47.25</v>
+        <v>-72.944999999999993</v>
       </c>
       <c r="AA16">
-        <v>96.350999999999999</v>
+        <v>-14.548999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>83.375</v>
+        <v>-11.076000000000001</v>
       </c>
       <c r="D17">
-        <v>725.78800000000001</v>
+        <v>36.518999999999998</v>
       </c>
       <c r="E17">
-        <v>927.25400000000002</v>
+        <v>24.866</v>
       </c>
       <c r="F17">
-        <v>332.46699999999998</v>
+        <v>-5.2949999999999999</v>
       </c>
       <c r="G17">
-        <v>2200.5120000000002</v>
+        <v>311.238</v>
       </c>
       <c r="H17">
-        <v>3739.4189999999999</v>
+        <v>472.685</v>
       </c>
       <c r="I17">
-        <v>47.341999999999999</v>
+        <v>5.1849999999999996</v>
       </c>
       <c r="J17">
-        <v>287.95</v>
+        <v>200</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>410.2</v>
+        <v>35.9</v>
       </c>
       <c r="O17">
-        <v>1187.6310000000001</v>
+        <v>293.81200000000001</v>
       </c>
       <c r="P17">
-        <v>565.31399999999996</v>
+        <v>200</v>
       </c>
       <c r="Q17">
-        <v>46.418999999999997</v>
+        <v>-13.378</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>2551</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>2551.788</v>
+        <v>178.87299999999999</v>
       </c>
       <c r="U17">
-        <v>646.55399999999997</v>
+        <v>105.047</v>
       </c>
       <c r="V17">
-        <v>164.321</v>
+        <v>-3.5859999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>5.1660000000000004</v>
+        <v>-0.80800000000000005</v>
       </c>
       <c r="Y17">
-        <v>276.11200000000002</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-43.298999999999999</v>
+        <v>-6.67</v>
       </c>
       <c r="AA17">
-        <v>83.375</v>
+        <v>-11.076000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>90.094999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="D18">
-        <v>802.32899999999995</v>
+        <v>47.09</v>
       </c>
       <c r="E18">
-        <v>976.37199999999996</v>
+        <v>43.021999999999998</v>
       </c>
       <c r="F18">
-        <v>391.11</v>
+        <v>8.827</v>
       </c>
       <c r="G18">
-        <v>2084.759</v>
+        <v>343.95499999999998</v>
       </c>
       <c r="H18">
-        <v>3837.672</v>
+        <v>473.108</v>
       </c>
       <c r="I18">
-        <v>99.507999999999996</v>
+        <v>4.407</v>
       </c>
       <c r="J18">
-        <v>146.773</v>
+        <v>200</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>654.66</v>
+        <v>34.139000000000003</v>
       </c>
       <c r="O18">
-        <v>1287.421</v>
+        <v>290.565</v>
       </c>
       <c r="P18">
-        <v>457.71100000000001</v>
+        <v>200</v>
       </c>
       <c r="Q18">
-        <v>2.165</v>
+        <v>3.5859999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>2925</v>
+        <v>730</v>
       </c>
       <c r="T18">
-        <v>2550.2510000000002</v>
+        <v>182.54300000000001</v>
       </c>
       <c r="U18">
-        <v>648.71900000000005</v>
+        <v>95.228999999999999</v>
       </c>
       <c r="V18">
-        <v>198.17500000000001</v>
+        <v>-12.199</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-252.655</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="Y18">
-        <v>310.93799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>174.18700000000001</v>
+        <v>10.742000000000001</v>
       </c>
       <c r="AA18">
-        <v>90.094999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>76.021000000000001</v>
+        <v>-4.1230000000000002</v>
       </c>
       <c r="D19">
-        <v>869.61199999999997</v>
+        <v>16.209</v>
       </c>
       <c r="E19">
-        <v>1338.462</v>
+        <v>10.371</v>
       </c>
       <c r="F19">
-        <v>442.54399999999998</v>
+        <v>-22.193999999999999</v>
       </c>
       <c r="G19">
-        <v>2310.7139999999999</v>
+        <v>369.85399999999998</v>
       </c>
       <c r="H19">
-        <v>4198.5730000000003</v>
+        <v>470.29199999999997</v>
       </c>
       <c r="I19">
-        <v>90.600999999999999</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="J19">
-        <v>144.08199999999999</v>
+        <v>200</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-16.686</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>536.13400000000001</v>
+        <v>29.931000000000001</v>
       </c>
       <c r="O19">
-        <v>1227.143</v>
+        <v>284.50799999999998</v>
       </c>
       <c r="P19">
-        <v>472.476</v>
+        <v>200</v>
       </c>
       <c r="Q19">
-        <v>-140.81200000000001</v>
+        <v>52.587000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>3066</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2971.43</v>
+        <v>185.78399999999999</v>
       </c>
       <c r="U19">
-        <v>507.90699999999998</v>
+        <v>147.816</v>
       </c>
       <c r="V19">
-        <v>-101.727</v>
+        <v>33.131999999999998</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>90.396000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="Y19">
-        <v>328.39400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-15.319000000000001</v>
+        <v>19.783999999999999</v>
       </c>
       <c r="AA19">
-        <v>76.021000000000001</v>
+        <v>-4.1230000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>194.643</v>
+        <v>-26.998999999999999</v>
       </c>
       <c r="D20">
-        <v>998.61699999999996</v>
+        <v>16.366</v>
       </c>
       <c r="E20">
-        <v>1395.125</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="F20">
-        <v>519.447</v>
+        <v>-25.951000000000001</v>
       </c>
       <c r="G20">
-        <v>2283.3409999999999</v>
+        <v>359.31200000000001</v>
       </c>
       <c r="H20">
-        <v>4526.97</v>
+        <v>446.94799999999998</v>
       </c>
       <c r="I20">
-        <v>130.01599999999999</v>
+        <v>3.2970000000000002</v>
       </c>
       <c r="J20">
-        <v>30.36</v>
+        <v>200</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>601.54200000000003</v>
+        <v>29.949000000000002</v>
       </c>
       <c r="O20">
-        <v>1188.5119999999999</v>
+        <v>281.88799999999998</v>
       </c>
       <c r="P20">
-        <v>388.04700000000003</v>
+        <v>200</v>
       </c>
       <c r="Q20">
-        <v>-117.35299999999999</v>
+        <v>-2.6150000000000002</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>3320</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3338.4580000000001</v>
+        <v>165.06</v>
       </c>
       <c r="U20">
-        <v>390.55399999999997</v>
+        <v>145.20099999999999</v>
       </c>
       <c r="V20">
-        <v>257.83100000000002</v>
+        <v>-28.582999999999998</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-3.5350000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="Y20">
-        <v>357.68700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-131.756</v>
+        <v>27.504000000000001</v>
       </c>
       <c r="AA20">
-        <v>194.643</v>
+        <v>-26.998999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>210.398</v>
+        <v>-34.652000000000001</v>
       </c>
       <c r="D21">
-        <v>1137.422</v>
+        <v>16.193999999999999</v>
       </c>
       <c r="E21">
-        <v>1439.3150000000001</v>
+        <v>10.536</v>
       </c>
       <c r="F21">
-        <v>602.41499999999996</v>
+        <v>-28.167999999999999</v>
       </c>
       <c r="G21">
-        <v>2675.64</v>
+        <v>324.95800000000003</v>
       </c>
       <c r="H21">
-        <v>5182.915</v>
+        <v>419.27499999999998</v>
       </c>
       <c r="I21">
-        <v>106.917</v>
+        <v>3.452</v>
       </c>
       <c r="J21">
-        <v>30.722999999999999</v>
+        <v>200</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>734.99</v>
+        <v>33.521000000000001</v>
       </c>
       <c r="O21">
-        <v>1886.048</v>
+        <v>282.89400000000001</v>
       </c>
       <c r="P21">
-        <v>394.86700000000002</v>
+        <v>200</v>
       </c>
       <c r="Q21">
-        <v>264.03300000000002</v>
+        <v>30.891999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>3535</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>3296.8670000000002</v>
+        <v>136.381</v>
       </c>
       <c r="U21">
-        <v>654.58699999999999</v>
+        <v>176.09299999999999</v>
       </c>
       <c r="V21">
-        <v>892.85299999999995</v>
+        <v>-14.997999999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-345.649</v>
+        <v>0.09</v>
       </c>
       <c r="Y21">
-        <v>364.14400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-137.072</v>
+        <v>47.515999999999998</v>
       </c>
       <c r="AA21">
-        <v>210.398</v>
+        <v>-34.652000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>154.994</v>
+        <v>-29.672000000000001</v>
       </c>
       <c r="D22">
-        <v>1098.077</v>
+        <v>17.423999999999999</v>
       </c>
       <c r="E22">
-        <v>1467.7929999999999</v>
+        <v>36.411999999999999</v>
       </c>
       <c r="F22">
-        <v>526.03599999999994</v>
+        <v>-20.477</v>
       </c>
       <c r="G22">
-        <v>2915.0949999999998</v>
+        <v>341.392</v>
       </c>
       <c r="H22">
-        <v>5609.1319999999996</v>
+        <v>423.50099999999998</v>
       </c>
       <c r="I22">
-        <v>140.96199999999999</v>
+        <v>4.2030000000000003</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>811.16200000000003</v>
+        <v>40.356999999999999</v>
       </c>
       <c r="O22">
-        <v>1954.2950000000001</v>
+        <v>309.49900000000002</v>
       </c>
       <c r="P22">
-        <v>375.51</v>
+        <v>200</v>
       </c>
       <c r="Q22">
-        <v>154.51499999999999</v>
+        <v>8.4149999999999991</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>4300</v>
+        <v>588</v>
       </c>
       <c r="T22">
-        <v>3654.837</v>
+        <v>114.002</v>
       </c>
       <c r="U22">
-        <v>809.10199999999998</v>
+        <v>184.50800000000001</v>
       </c>
       <c r="V22">
-        <v>281.82299999999998</v>
+        <v>-19.847000000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-4.008</v>
+        <v>2.9590000000000001</v>
       </c>
       <c r="Y22">
-        <v>362.91899999999998</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>54.478999999999999</v>
+        <v>25.654</v>
       </c>
       <c r="AA22">
-        <v>154.994</v>
+        <v>-29.672000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>181.38499999999999</v>
+        <v>-20.38</v>
       </c>
       <c r="D23">
-        <v>1200.8489999999999</v>
+        <v>18.219000000000001</v>
       </c>
       <c r="E23">
-        <v>1865.221</v>
+        <v>11.01</v>
       </c>
       <c r="F23">
-        <v>618.98500000000001</v>
+        <v>-15.717000000000001</v>
       </c>
       <c r="G23">
-        <v>3133.3789999999999</v>
+        <v>319.64699999999999</v>
       </c>
       <c r="H23">
-        <v>5904.46</v>
+        <v>402.089</v>
       </c>
       <c r="I23">
-        <v>120.595</v>
+        <v>3.758</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-2.3370000000000002</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>919.72400000000005</v>
+        <v>33.667000000000002</v>
       </c>
       <c r="O23">
-        <v>2139.3780000000002</v>
+        <v>299.76600000000002</v>
       </c>
       <c r="P23">
-        <v>375.738</v>
+        <v>200</v>
       </c>
       <c r="Q23">
-        <v>-204.88800000000001</v>
+        <v>-2.1760000000000002</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>4473</v>
+        <v>587</v>
       </c>
       <c r="T23">
-        <v>3765.0819999999999</v>
+        <v>102.32299999999999</v>
       </c>
       <c r="U23">
-        <v>604.21400000000006</v>
+        <v>182.33199999999999</v>
       </c>
       <c r="V23">
-        <v>44.988999999999997</v>
+        <v>5.2779999999999996</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-206.19200000000001</v>
+        <v>3.4159999999999999</v>
       </c>
       <c r="Y23">
-        <v>362.23</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>60.408999999999999</v>
+        <v>-10.224</v>
       </c>
       <c r="AA23">
-        <v>181.38499999999999</v>
+        <v>-20.38</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>196.21799999999999</v>
+        <v>-23.576000000000001</v>
       </c>
       <c r="D24">
-        <v>1212.6289999999999</v>
+        <v>19.257999999999999</v>
       </c>
       <c r="E24">
-        <v>1751.971</v>
+        <v>12.141</v>
       </c>
       <c r="F24">
-        <v>583.66600000000005</v>
+        <v>-17.95</v>
       </c>
       <c r="G24">
-        <v>3209.2249999999999</v>
+        <v>291.05599999999998</v>
       </c>
       <c r="H24">
-        <v>6204.9059999999999</v>
+        <v>378.33199999999999</v>
       </c>
       <c r="I24">
-        <v>101.721</v>
+        <v>2.84</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>951.56299999999999</v>
+        <v>31.507999999999999</v>
       </c>
       <c r="O24">
-        <v>2128.4</v>
+        <v>294.565</v>
       </c>
       <c r="P24">
-        <v>365.21800000000002</v>
+        <v>200</v>
       </c>
       <c r="Q24">
-        <v>42.293999999999997</v>
+        <v>-67.372</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>4615</v>
+        <v>583</v>
       </c>
       <c r="T24">
-        <v>4076.5059999999999</v>
+        <v>83.766999999999996</v>
       </c>
       <c r="U24">
-        <v>646.50800000000004</v>
+        <v>114.96</v>
       </c>
       <c r="V24">
-        <v>399.49900000000002</v>
+        <v>-20.675000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-31.195</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="Y24">
-        <v>361.52300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-187.17400000000001</v>
+        <v>-47.143999999999998</v>
       </c>
       <c r="AA24">
-        <v>196.21799999999999</v>
+        <v>-23.576000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>264.80399999999997</v>
+        <v>-27.41</v>
       </c>
       <c r="D25">
-        <v>1220.1220000000001</v>
+        <v>15.624000000000001</v>
       </c>
       <c r="E25">
-        <v>1643.8720000000001</v>
+        <v>7.8369999999999997</v>
       </c>
       <c r="F25">
-        <v>632.84699999999998</v>
+        <v>-22.238</v>
       </c>
       <c r="G25">
-        <v>3501.6889999999999</v>
+        <v>273.74900000000002</v>
       </c>
       <c r="H25">
-        <v>6828.0190000000002</v>
+        <v>355.18599999999998</v>
       </c>
       <c r="I25">
-        <v>124.497</v>
+        <v>3.657</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>961.18499999999995</v>
+        <v>32.698</v>
       </c>
       <c r="O25">
-        <v>2336.7719999999999</v>
+        <v>292.71300000000002</v>
       </c>
       <c r="P25">
-        <v>385.81400000000002</v>
+        <v>200</v>
       </c>
       <c r="Q25">
-        <v>273.851</v>
+        <v>52.701999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>4786</v>
+        <v>574</v>
       </c>
       <c r="T25">
-        <v>4491.2470000000003</v>
+        <v>62.472999999999999</v>
       </c>
       <c r="U25">
-        <v>920.35900000000004</v>
+        <v>167.66200000000001</v>
       </c>
       <c r="V25">
-        <v>651.029</v>
+        <v>-14.831</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>28.675000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="Y25">
-        <v>382.22800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-287.29700000000003</v>
+        <v>67.08</v>
       </c>
       <c r="AA25">
-        <v>264.80399999999997</v>
+        <v>-27.41</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>253.11500000000001</v>
+        <v>-30.971</v>
       </c>
       <c r="D26">
-        <v>1226.827</v>
+        <v>10.346</v>
       </c>
       <c r="E26">
-        <v>1611.62</v>
+        <v>6.9</v>
       </c>
       <c r="F26">
-        <v>672.94</v>
+        <v>-12.009</v>
       </c>
       <c r="G26">
-        <v>3180.1880000000001</v>
+        <v>469.98399999999998</v>
       </c>
       <c r="H26">
-        <v>6973.4660000000003</v>
+        <v>585.09</v>
       </c>
       <c r="I26">
-        <v>134.98400000000001</v>
+        <v>4.3490000000000002</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1241.4949999999999</v>
+        <v>45.014000000000003</v>
       </c>
       <c r="O26">
-        <v>2524.221</v>
+        <v>368.46600000000001</v>
       </c>
       <c r="P26">
-        <v>481.12599999999998</v>
+        <v>200</v>
       </c>
       <c r="Q26">
-        <v>-385.15600000000001</v>
+        <v>70.213999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>5400</v>
+        <v>573</v>
       </c>
       <c r="T26">
-        <v>4449.2449999999999</v>
+        <v>216.624</v>
       </c>
       <c r="U26">
-        <v>535.20299999999997</v>
+        <v>237.876</v>
       </c>
       <c r="V26">
-        <v>377.87900000000002</v>
+        <v>53.302999999999997</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-491.67899999999997</v>
+        <v>180.125</v>
       </c>
       <c r="Y26">
-        <v>351.56900000000002</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-120.901</v>
+        <v>-160.40600000000001</v>
       </c>
       <c r="AA26">
-        <v>253.11500000000001</v>
+        <v>-30.971</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>248.93100000000001</v>
+        <v>-29.917000000000002</v>
       </c>
       <c r="D27">
-        <v>1318.991</v>
+        <v>15.788</v>
       </c>
       <c r="E27">
-        <v>1749.548</v>
+        <v>32.746000000000002</v>
       </c>
       <c r="F27">
-        <v>727.38800000000003</v>
+        <v>-25.446999999999999</v>
       </c>
       <c r="G27">
-        <v>3669.2629999999999</v>
+        <v>489.16300000000001</v>
       </c>
       <c r="H27">
-        <v>7817.3649999999998</v>
+        <v>601.43100000000004</v>
       </c>
       <c r="I27">
-        <v>141.80099999999999</v>
+        <v>4.8049999999999997</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-12.861000000000001</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1308.271</v>
+        <v>83.603999999999999</v>
       </c>
       <c r="O27">
-        <v>2951.3440000000001</v>
+        <v>404.74200000000002</v>
       </c>
       <c r="P27">
-        <v>707.60699999999997</v>
+        <v>200</v>
       </c>
       <c r="Q27">
-        <v>276.57</v>
+        <v>-81.391999999999996</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>5505</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>4866.0209999999997</v>
+        <v>196.68899999999999</v>
       </c>
       <c r="U27">
-        <v>811.77300000000002</v>
+        <v>156.48400000000001</v>
       </c>
       <c r="V27">
-        <v>355.90100000000001</v>
+        <v>-9.2379999999999995</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>60.811999999999998</v>
+        <v>1.958</v>
       </c>
       <c r="Y27">
-        <v>700.40700000000004</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-89.682000000000002</v>
+        <v>-72.915000000000006</v>
       </c>
       <c r="AA27">
-        <v>248.93100000000001</v>
+        <v>-29.917000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>387.74400000000003</v>
+        <v>-26.774000000000001</v>
       </c>
       <c r="D28">
-        <v>1470.116</v>
+        <v>22.195</v>
       </c>
       <c r="E28">
-        <v>1844.547</v>
+        <v>18.873000000000001</v>
       </c>
       <c r="F28">
-        <v>857.22</v>
+        <v>-21.669</v>
       </c>
       <c r="G28">
-        <v>3860.0509999999999</v>
+        <v>496.98099999999999</v>
       </c>
       <c r="H28">
-        <v>8106.3729999999996</v>
+        <v>597.85799999999995</v>
       </c>
       <c r="I28">
-        <v>151.37200000000001</v>
+        <v>18.545999999999999</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1029.0170000000001</v>
+        <v>104.831</v>
       </c>
       <c r="O28">
-        <v>2585.6350000000002</v>
+        <v>418.52199999999999</v>
       </c>
       <c r="P28">
-        <v>701.173</v>
+        <v>200</v>
       </c>
       <c r="Q28">
-        <v>-67.459999999999994</v>
+        <v>-46.841000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>5541</v>
+        <v>602</v>
       </c>
       <c r="T28">
-        <v>5520.7380000000003</v>
+        <v>179.33600000000001</v>
       </c>
       <c r="U28">
-        <v>744.31299999999999</v>
+        <v>109.643</v>
       </c>
       <c r="V28">
-        <v>-30.57</v>
+        <v>-3.5070000000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>133.51900000000001</v>
+        <v>2.8660000000000001</v>
       </c>
       <c r="Y28">
-        <v>701.173</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>-115.56</v>
+        <v>-44.372999999999998</v>
       </c>
       <c r="AA28">
-        <v>387.74400000000003</v>
+        <v>-26.774000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>388.31700000000001</v>
+        <v>-35.838000000000001</v>
       </c>
       <c r="D29">
-        <v>1500.673</v>
+        <v>22.311</v>
       </c>
       <c r="E29">
-        <v>1971.4490000000001</v>
+        <v>10.689</v>
       </c>
       <c r="F29">
-        <v>866.69200000000001</v>
+        <v>-29.378</v>
       </c>
       <c r="G29">
-        <v>4135.7420000000002</v>
+        <v>422.02</v>
       </c>
       <c r="H29">
-        <v>8701.2150000000001</v>
+        <v>573.096</v>
       </c>
       <c r="I29">
-        <v>153.946</v>
+        <v>5.33</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,75 +3133,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1138.6279999999999</v>
+        <v>96.686000000000007</v>
       </c>
       <c r="O29">
-        <v>2649.6219999999998</v>
+        <v>421.69900000000001</v>
       </c>
       <c r="P29">
-        <v>702.31700000000001</v>
+        <v>200</v>
       </c>
       <c r="Q29">
-        <v>47.752000000000002</v>
+        <v>-12.227</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>5653</v>
+        <v>639</v>
       </c>
       <c r="T29">
-        <v>6051.5929999999998</v>
+        <v>151.39699999999999</v>
       </c>
       <c r="U29">
-        <v>792.06500000000005</v>
+        <v>97.415999999999997</v>
       </c>
       <c r="V29">
-        <v>414.83199999999999</v>
+        <v>-10.7</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-8.1959999999999997</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="Y29">
-        <v>702.31700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-299.23099999999999</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="AA29">
-        <v>388.31700000000001</v>
+        <v>-35.838000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>173.50800000000001</v>
+        <v>-13.071</v>
       </c>
       <c r="D30">
-        <v>1582.42</v>
+        <v>64.73</v>
       </c>
       <c r="E30">
-        <v>2045.6</v>
+        <v>17.041</v>
       </c>
       <c r="F30">
-        <v>948.7</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="G30">
-        <v>4335</v>
+        <v>797.82899999999995</v>
       </c>
       <c r="H30">
-        <v>8764.2999999999993</v>
+        <v>936.25800000000004</v>
       </c>
       <c r="I30">
-        <v>178.2</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3216,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1135.5</v>
+        <v>283.66399999999999</v>
       </c>
       <c r="O30">
-        <v>2620.1999999999998</v>
+        <v>475.99099999999999</v>
       </c>
       <c r="P30">
-        <v>703.5</v>
+        <v>200</v>
       </c>
       <c r="Q30">
-        <v>20.638000000000002</v>
+        <v>401.50900000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>6200</v>
+        <v>682</v>
       </c>
       <c r="T30">
-        <v>6144.1</v>
+        <v>460.267</v>
       </c>
       <c r="U30">
-        <v>812.7</v>
+        <v>498.92500000000001</v>
       </c>
       <c r="V30">
-        <v>566.93700000000001</v>
+        <v>50.817</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-210.535</v>
+        <v>314.22899999999998</v>
       </c>
       <c r="Y30">
-        <v>703.5</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-228.12700000000001</v>
+        <v>47.192999999999998</v>
       </c>
       <c r="AA30">
-        <v>173.50800000000001</v>
+        <v>-13.071</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>478</v>
+        <v>-11.618</v>
       </c>
       <c r="D31">
-        <v>1511.5</v>
+        <v>56.383000000000003</v>
       </c>
       <c r="E31">
-        <v>1984.557</v>
+        <v>31.1</v>
       </c>
       <c r="F31">
-        <v>898</v>
+        <v>-4.8869999999999996</v>
       </c>
       <c r="G31">
-        <v>4544.732</v>
+        <v>787.505</v>
       </c>
       <c r="H31">
-        <v>9372.6959999999999</v>
+        <v>930.87599999999998</v>
       </c>
       <c r="I31">
-        <v>207.61099999999999</v>
+        <v>9.4749999999999996</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3299,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1265.74</v>
+        <v>285.95400000000001</v>
       </c>
       <c r="O31">
-        <v>2805.0520000000001</v>
+        <v>470.27300000000002</v>
       </c>
       <c r="P31">
-        <v>704.64499999999998</v>
+        <v>200</v>
       </c>
       <c r="Q31">
-        <v>206.8</v>
+        <v>21.95</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>6401</v>
+        <v>714</v>
       </c>
       <c r="T31">
-        <v>6567.6440000000002</v>
+        <v>460.60300000000001</v>
       </c>
       <c r="U31">
-        <v>1019.491</v>
+        <v>520.875</v>
       </c>
       <c r="V31">
-        <v>618.79999999999995</v>
+        <v>-17.896999999999998</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>13.4</v>
+        <v>1.903</v>
       </c>
       <c r="Y31">
-        <v>704.64499999999998</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>-346</v>
+        <v>40.991</v>
       </c>
       <c r="AA31">
-        <v>478</v>
+        <v>-11.618</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>551.4</v>
+        <v>-18.917999999999999</v>
       </c>
       <c r="D32">
-        <v>1608</v>
+        <v>60.652999999999999</v>
       </c>
       <c r="E32">
-        <v>2074.7510000000002</v>
+        <v>30.437999999999999</v>
       </c>
       <c r="F32">
-        <v>987</v>
+        <v>-6.1239999999999997</v>
       </c>
       <c r="G32">
-        <v>4814.9170000000004</v>
+        <v>742.39300000000003</v>
       </c>
       <c r="H32">
-        <v>9951.98</v>
+        <v>851.22500000000002</v>
       </c>
       <c r="I32">
-        <v>171.90600000000001</v>
+        <v>10.436</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3382,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1331.19</v>
+        <v>223.91800000000001</v>
       </c>
       <c r="O32">
-        <v>2765.5540000000001</v>
+        <v>400.22800000000001</v>
       </c>
       <c r="P32">
-        <v>705.90300000000002</v>
+        <v>118.65300000000001</v>
       </c>
       <c r="Q32">
-        <v>-101.6</v>
+        <v>-228.74600000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>6570</v>
+        <v>742</v>
       </c>
       <c r="T32">
-        <v>7186.4260000000004</v>
+        <v>450.99700000000001</v>
       </c>
       <c r="U32">
-        <v>917.87599999999998</v>
+        <v>292.12900000000002</v>
       </c>
       <c r="V32">
-        <v>394.6</v>
+        <v>6.1970000000000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-11.2</v>
+        <v>-80.366</v>
       </c>
       <c r="Y32">
-        <v>705.90300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>-373</v>
+        <v>-147.785</v>
       </c>
       <c r="AA32">
-        <v>551.4</v>
+        <v>-18.689</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>594.6</v>
+        <v>-19.084</v>
       </c>
       <c r="D33">
-        <v>1663.5</v>
+        <v>65.584000000000003</v>
       </c>
       <c r="E33">
-        <v>2290.9299999999998</v>
+        <v>39.363</v>
       </c>
       <c r="F33">
-        <v>996.1</v>
+        <v>-6.7969999999999997</v>
       </c>
       <c r="G33">
-        <v>5719.5829999999996</v>
+        <v>715.54</v>
       </c>
       <c r="H33">
-        <v>10805.612999999999</v>
+        <v>825.89099999999996</v>
       </c>
       <c r="I33">
-        <v>172.36099999999999</v>
+        <v>13.188000000000001</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3465,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1417.23</v>
+        <v>217.77099999999999</v>
       </c>
       <c r="O33">
-        <v>2937.3130000000001</v>
+        <v>388.95800000000003</v>
       </c>
       <c r="P33">
-        <v>707.20299999999997</v>
+        <v>117.503</v>
       </c>
       <c r="Q33">
-        <v>169.9</v>
+        <v>22.555</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>6763</v>
+        <v>778</v>
       </c>
       <c r="T33">
-        <v>7868.3</v>
+        <v>436.93299999999999</v>
       </c>
       <c r="U33">
-        <v>1087.8430000000001</v>
+        <v>314.68400000000003</v>
       </c>
       <c r="V33">
-        <v>452.9</v>
+        <v>-41.545999999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>3.7</v>
+        <v>1.3240000000000001</v>
       </c>
       <c r="Y33">
-        <v>707.20299999999997</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-170.5</v>
+        <v>72.105000000000004</v>
       </c>
       <c r="AA33">
-        <v>594.70000000000005</v>
+        <v>-19.084</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>820.4</v>
+        <v>-29.509</v>
       </c>
       <c r="D34">
-        <v>1927.8</v>
+        <v>55.837000000000003</v>
       </c>
       <c r="E34">
-        <v>2272</v>
+        <v>33.302</v>
       </c>
       <c r="F34">
-        <v>1209.4000000000001</v>
+        <v>-19.361999999999998</v>
       </c>
       <c r="G34">
-        <v>6447.6</v>
+        <v>521.44200000000001</v>
       </c>
       <c r="H34">
-        <v>11734.5</v>
+        <v>724.22</v>
       </c>
       <c r="I34">
-        <v>218.2</v>
+        <v>6.2679999999999998</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3548,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1442.8</v>
+        <v>83.671999999999997</v>
       </c>
       <c r="O34">
-        <v>2977.2</v>
+        <v>302.70600000000002</v>
       </c>
       <c r="P34">
-        <v>708.5</v>
+        <v>54.182000000000002</v>
       </c>
       <c r="Q34">
-        <v>379.9</v>
+        <v>-66.888000000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7400</v>
+        <v>919</v>
       </c>
       <c r="T34">
-        <v>8757.2999999999993</v>
+        <v>421.51400000000001</v>
       </c>
       <c r="U34">
-        <v>1467.7</v>
+        <v>247.79599999999999</v>
       </c>
       <c r="V34">
-        <v>728.8</v>
+        <v>-35.840000000000003</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-83</v>
+        <v>-115.71899999999999</v>
       </c>
       <c r="Y34">
-        <v>708.5</v>
+        <v>54.182000000000002</v>
       </c>
       <c r="Z34">
-        <v>-180.4</v>
+        <v>100.411</v>
       </c>
       <c r="AA34">
-        <v>820.4</v>
+        <v>-29.509</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>461.1</v>
+        <v>-15.388</v>
       </c>
       <c r="D35">
-        <v>1372.6</v>
+        <v>74.980999999999995</v>
       </c>
       <c r="E35">
-        <v>2337.4</v>
+        <v>44.576000000000001</v>
       </c>
       <c r="F35">
-        <v>714.4</v>
+        <v>-5.718</v>
       </c>
       <c r="G35">
-        <v>6928.6</v>
+        <v>483.791</v>
       </c>
       <c r="H35">
-        <v>12854.8</v>
+        <v>681.42100000000005</v>
       </c>
       <c r="I35">
-        <v>239.6</v>
+        <v>17.779</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3631,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1511.4</v>
+        <v>103.113</v>
       </c>
       <c r="O35">
-        <v>3410.1</v>
+        <v>271.101</v>
       </c>
       <c r="P35">
-        <v>739.3</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>240.8</v>
+        <v>-48.698999999999998</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>7448</v>
+        <v>938</v>
       </c>
       <c r="T35">
-        <v>9444.7000000000007</v>
+        <v>410.32</v>
       </c>
       <c r="U35">
-        <v>1708.5</v>
+        <v>199.09700000000001</v>
       </c>
       <c r="V35">
-        <v>897</v>
+        <v>-15.381</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>119.9</v>
+        <v>6.22</v>
       </c>
       <c r="Y35">
-        <v>733.1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-701.8</v>
+        <v>-17.620999999999999</v>
       </c>
       <c r="AA35">
-        <v>461.1</v>
+        <v>-15.388</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>193.1</v>
+        <v>-14.938000000000001</v>
       </c>
       <c r="D36">
-        <v>1577.8</v>
+        <v>90.031999999999996</v>
       </c>
       <c r="E36">
-        <v>2492.6</v>
+        <v>54.24</v>
       </c>
       <c r="F36">
-        <v>546.5</v>
+        <v>-4.6340000000000003</v>
       </c>
       <c r="G36">
-        <v>6651</v>
+        <v>465.03199999999998</v>
       </c>
       <c r="H36">
-        <v>13173.6</v>
+        <v>742.34500000000003</v>
       </c>
       <c r="I36">
-        <v>244</v>
+        <v>13.034000000000001</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3714,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1713.1</v>
+        <v>120.42400000000001</v>
       </c>
       <c r="O36">
-        <v>3417.7</v>
+        <v>331.839</v>
       </c>
       <c r="P36">
-        <v>739</v>
+        <v>62.924999999999997</v>
       </c>
       <c r="Q36">
-        <v>-663</v>
+        <v>72.369</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>7549</v>
+        <v>952</v>
       </c>
       <c r="T36">
-        <v>9755.9</v>
+        <v>410.50599999999997</v>
       </c>
       <c r="U36">
-        <v>1045.5</v>
+        <v>271.46600000000001</v>
       </c>
       <c r="V36">
-        <v>188.3</v>
+        <v>-0.623</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-15.3</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="Y36">
-        <v>735</v>
+        <v>62.924999999999997</v>
       </c>
       <c r="Z36">
-        <v>-741.4</v>
+        <v>103.029</v>
       </c>
       <c r="AA36">
-        <v>193.1</v>
+        <v>-14.938000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>669.6</v>
+        <v>-1.0149999999999999</v>
       </c>
       <c r="D37">
-        <v>1743.7</v>
+        <v>117.455</v>
       </c>
       <c r="E37">
-        <v>2696</v>
+        <v>63.953000000000003</v>
       </c>
       <c r="F37">
-        <v>992.2</v>
+        <v>11.548999999999999</v>
       </c>
       <c r="G37">
-        <v>7109.1</v>
+        <v>461.59399999999999</v>
       </c>
       <c r="H37">
-        <v>13939.3</v>
+        <v>742.19200000000001</v>
       </c>
       <c r="I37">
-        <v>335.6</v>
+        <v>13.855</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3797,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1765.4</v>
+        <v>114.16500000000001</v>
       </c>
       <c r="O37">
-        <v>3434.9</v>
+        <v>319.74900000000002</v>
       </c>
       <c r="P37">
-        <v>738</v>
+        <v>62.570999999999998</v>
       </c>
       <c r="Q37">
-        <v>339.3</v>
+        <v>-21.145</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>7674</v>
+        <v>967</v>
       </c>
       <c r="T37">
-        <v>10504.4</v>
+        <v>422.44299999999998</v>
       </c>
       <c r="U37">
-        <v>1384.8</v>
+        <v>250.321</v>
       </c>
       <c r="V37">
-        <v>557.29999999999995</v>
+        <v>-9.8219999999999992</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-11</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="Y37">
-        <v>736.1</v>
+        <v>62.570999999999998</v>
       </c>
       <c r="Z37">
-        <v>-85.3</v>
+        <v>8.86</v>
       </c>
       <c r="AA37">
-        <v>669.6</v>
+        <v>-1.0149999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>792</v>
+        <v>-36.488999999999997</v>
       </c>
       <c r="D38">
-        <v>1863.5</v>
+        <v>96.8</v>
       </c>
       <c r="E38">
-        <v>2693.4</v>
+        <v>62.703000000000003</v>
       </c>
       <c r="F38">
-        <v>1089.4000000000001</v>
+        <v>-22.376999999999999</v>
       </c>
       <c r="G38">
-        <v>7689.1</v>
+        <v>425.50799999999998</v>
       </c>
       <c r="H38">
-        <v>14805.2</v>
+        <v>741.202</v>
       </c>
       <c r="I38">
-        <v>418.1</v>
+        <v>18.638000000000002</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3880,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2096.6</v>
+        <v>93.575000000000003</v>
       </c>
       <c r="O38">
-        <v>3715.5</v>
+        <v>344.44</v>
       </c>
       <c r="P38">
-        <v>713.9</v>
+        <v>109.02200000000001</v>
       </c>
       <c r="Q38">
-        <v>233</v>
+        <v>-43.246000000000002</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>8100</v>
+        <v>1029</v>
       </c>
       <c r="T38">
-        <v>11089.7</v>
+        <v>396.762</v>
       </c>
       <c r="U38">
-        <v>1617.8</v>
+        <v>207.07499999999999</v>
       </c>
       <c r="V38">
-        <v>787.4</v>
+        <v>-46.404000000000003</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-345.7</v>
+        <v>22.327999999999999</v>
       </c>
       <c r="Y38">
-        <v>713.9</v>
+        <v>109.02200000000001</v>
       </c>
       <c r="Z38">
-        <v>-69.7</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="AA38">
-        <v>792</v>
+        <v>-36.488999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>624.6</v>
+        <v>-30.521999999999998</v>
       </c>
       <c r="D39">
-        <v>1828.2</v>
+        <v>103.53400000000001</v>
       </c>
       <c r="E39">
-        <v>2833.8</v>
+        <v>68.837999999999994</v>
       </c>
       <c r="F39">
-        <v>1027</v>
+        <v>-14.654</v>
       </c>
       <c r="G39">
-        <v>8644.1</v>
+        <v>395.44400000000002</v>
       </c>
       <c r="H39">
-        <v>15757.5</v>
+        <v>787.15599999999995</v>
       </c>
       <c r="I39">
-        <v>347.8</v>
+        <v>14.315</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3840,84 +3960,84 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-0.55500000000000005</v>
       </c>
       <c r="N39">
-        <v>2055.1999999999998</v>
+        <v>104.093</v>
       </c>
       <c r="O39">
-        <v>3624.5</v>
+        <v>400.88499999999999</v>
       </c>
       <c r="P39">
-        <v>715.2</v>
+        <v>156.899</v>
       </c>
       <c r="Q39">
-        <v>590.4</v>
+        <v>-89.763999999999996</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>8030</v>
+        <v>1087</v>
       </c>
       <c r="T39">
-        <v>12133</v>
+        <v>386.27100000000002</v>
       </c>
       <c r="U39">
-        <v>2208.1999999999998</v>
+        <v>117.31100000000001</v>
       </c>
       <c r="V39">
-        <v>698</v>
+        <v>-9.5779999999999994</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>335.6</v>
+        <v>56.215000000000003</v>
       </c>
       <c r="Y39">
-        <v>715.2</v>
+        <v>156.464</v>
       </c>
       <c r="Z39">
-        <v>-273.10000000000002</v>
+        <v>-113.658</v>
       </c>
       <c r="AA39">
-        <v>624.6</v>
+        <v>-30.521999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>897.3</v>
+        <v>-25.474</v>
       </c>
       <c r="D40">
-        <v>1952</v>
+        <v>115.886</v>
       </c>
       <c r="E40">
-        <v>2654.5</v>
+        <v>91.126000000000005</v>
       </c>
       <c r="F40">
-        <v>954.5</v>
+        <v>-9.0449999999999999</v>
       </c>
       <c r="G40">
-        <v>7860.2</v>
+        <v>417.75</v>
       </c>
       <c r="H40">
-        <v>14428.7</v>
+        <v>790.64099999999996</v>
       </c>
       <c r="I40">
-        <v>380.1</v>
+        <v>15.525</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3702.4</v>
+        <v>119.571</v>
       </c>
       <c r="O40">
-        <v>5371.3</v>
+        <v>419.42500000000001</v>
       </c>
       <c r="P40">
-        <v>2215.9</v>
+        <v>157.80699999999999</v>
       </c>
       <c r="Q40">
-        <v>-216</v>
+        <v>-5.3109999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>8142</v>
+        <v>1151</v>
       </c>
       <c r="T40">
-        <v>9057.4</v>
+        <v>371.21600000000001</v>
       </c>
       <c r="U40">
-        <v>1992.2</v>
+        <v>112</v>
       </c>
       <c r="V40">
-        <v>943.4</v>
+        <v>-11.85</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-2612.8000000000002</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="Y40">
-        <v>715.9</v>
+        <v>157.35900000000001</v>
       </c>
       <c r="Z40">
-        <v>1583.3</v>
+        <v>28.201000000000001</v>
       </c>
       <c r="AA40">
-        <v>897.3</v>
+        <v>-25.474</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>842.1</v>
+        <v>-33.875</v>
       </c>
       <c r="D41">
-        <v>2294</v>
+        <v>105.979</v>
       </c>
       <c r="E41">
-        <v>3879.1</v>
+        <v>79.239000000000004</v>
       </c>
       <c r="F41">
-        <v>1335.4</v>
+        <v>-16.436</v>
       </c>
       <c r="G41">
-        <v>9097.6</v>
+        <v>575.71900000000005</v>
       </c>
       <c r="H41">
-        <v>16084</v>
+        <v>942.43299999999999</v>
       </c>
       <c r="I41">
-        <v>443.1</v>
+        <v>22.576000000000001</v>
       </c>
       <c r="J41">
-        <v>1978.3</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2337.8000000000002</v>
+        <v>133.833</v>
       </c>
       <c r="O41">
-        <v>5958.5</v>
+        <v>594.36900000000003</v>
       </c>
       <c r="P41">
-        <v>2694.8</v>
+        <v>159.01599999999999</v>
       </c>
       <c r="Q41">
-        <v>-418.1</v>
+        <v>213.286</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>8314</v>
+        <v>1206</v>
       </c>
       <c r="T41">
-        <v>10125.5</v>
+        <v>348.06400000000002</v>
       </c>
       <c r="U41">
-        <v>1573</v>
+        <v>325.286</v>
       </c>
       <c r="V41">
-        <v>-254.3</v>
+        <v>161.501</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>612</v>
+        <v>1.613</v>
       </c>
       <c r="Y41">
-        <v>716.5</v>
+        <v>158.38200000000001</v>
       </c>
       <c r="Z41">
-        <v>-622.6</v>
+        <v>72.275000000000006</v>
       </c>
       <c r="AA41">
-        <v>842.1</v>
+        <v>-33.875</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-14.597</v>
+      </c>
+      <c r="D42">
+        <v>133.67500000000001</v>
+      </c>
+      <c r="E42">
+        <v>81.917000000000002</v>
+      </c>
+      <c r="F42">
+        <v>7.8639999999999999</v>
+      </c>
+      <c r="G42">
+        <v>357.62200000000001</v>
+      </c>
+      <c r="H42">
+        <v>1089.432</v>
+      </c>
+      <c r="I42">
+        <v>15.589</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>109.056</v>
+      </c>
+      <c r="O42">
+        <v>561.61699999999996</v>
+      </c>
+      <c r="P42">
+        <v>162.85900000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-212.714</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1395</v>
+      </c>
+      <c r="T42">
+        <v>527.81500000000005</v>
+      </c>
+      <c r="U42">
+        <v>112.572</v>
+      </c>
+      <c r="V42">
+        <v>-40.850999999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>182.75899999999999</v>
+      </c>
+      <c r="Y42">
+        <v>162.184</v>
+      </c>
+      <c r="Z42">
+        <v>-318.21899999999999</v>
+      </c>
+      <c r="AA42">
+        <v>-14.597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-43.447000000000003</v>
+      </c>
+      <c r="D43">
+        <v>112.20399999999999</v>
+      </c>
+      <c r="E43">
+        <v>84.391000000000005</v>
+      </c>
+      <c r="F43">
+        <v>-17.57</v>
+      </c>
+      <c r="G43">
+        <v>325.50099999999998</v>
+      </c>
+      <c r="H43">
+        <v>1074.2929999999999</v>
+      </c>
+      <c r="I43">
+        <v>16.146000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="N43">
+        <v>112.252</v>
+      </c>
+      <c r="O43">
+        <v>556.202</v>
+      </c>
+      <c r="P43">
+        <v>160.15100000000001</v>
+      </c>
+      <c r="Q43">
+        <v>22.803999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>1432</v>
+      </c>
+      <c r="T43">
+        <v>518.09100000000001</v>
+      </c>
+      <c r="U43">
+        <v>135.376</v>
+      </c>
+      <c r="V43">
+        <v>-10.58</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>13.037000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>159.35300000000001</v>
+      </c>
+      <c r="Z43">
+        <v>42.481000000000002</v>
+      </c>
+      <c r="AA43">
+        <v>-43.447000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-62.505000000000003</v>
+      </c>
+      <c r="D44">
+        <v>107.81</v>
+      </c>
+      <c r="E44">
+        <v>81.643000000000001</v>
+      </c>
+      <c r="F44">
+        <v>-35.734000000000002</v>
+      </c>
+      <c r="G44">
+        <v>413.27300000000002</v>
+      </c>
+      <c r="H44">
+        <v>1046.864</v>
+      </c>
+      <c r="I44">
+        <v>25.954999999999998</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>135.86799999999999</v>
+      </c>
+      <c r="O44">
+        <v>568.83000000000004</v>
+      </c>
+      <c r="P44">
+        <v>160.334</v>
+      </c>
+      <c r="Q44">
+        <v>118.93600000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>1464</v>
+      </c>
+      <c r="T44">
+        <v>478.03399999999999</v>
+      </c>
+      <c r="U44">
+        <v>254.31200000000001</v>
+      </c>
+      <c r="V44">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>10.051</v>
+      </c>
+      <c r="Y44">
+        <v>159.45699999999999</v>
+      </c>
+      <c r="Z44">
+        <v>158.512</v>
+      </c>
+      <c r="AA44">
+        <v>-62.505000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-62.365000000000002</v>
+      </c>
+      <c r="D45">
+        <v>102.833</v>
+      </c>
+      <c r="E45">
+        <v>74.787999999999997</v>
+      </c>
+      <c r="F45">
+        <v>-25.541</v>
+      </c>
+      <c r="G45">
+        <v>339.87200000000001</v>
+      </c>
+      <c r="H45">
+        <v>983.03099999999995</v>
+      </c>
+      <c r="I45">
+        <v>17.309000000000001</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>133.23500000000001</v>
+      </c>
+      <c r="O45">
+        <v>554.77800000000002</v>
+      </c>
+      <c r="P45">
+        <v>160.40199999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-47.917000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>1525</v>
+      </c>
+      <c r="T45">
+        <v>428.25299999999999</v>
+      </c>
+      <c r="U45">
+        <v>206.39500000000001</v>
+      </c>
+      <c r="V45">
+        <v>-46.734999999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="Y45">
+        <v>159.482</v>
+      </c>
+      <c r="Z45">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="AA45">
+        <v>-62.365000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-53.442999999999998</v>
+      </c>
+      <c r="D46">
+        <v>122.977</v>
+      </c>
+      <c r="E46">
+        <v>103.035</v>
+      </c>
+      <c r="F46">
+        <v>-9.0530000000000008</v>
+      </c>
+      <c r="G46">
+        <v>665.77700000000004</v>
+      </c>
+      <c r="H46">
+        <v>1323.5830000000001</v>
+      </c>
+      <c r="I46">
+        <v>27.736000000000001</v>
+      </c>
+      <c r="J46">
+        <v>275.01900000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>148.27099999999999</v>
+      </c>
+      <c r="O46">
+        <v>837.851</v>
+      </c>
+      <c r="P46">
+        <v>438.03899999999999</v>
+      </c>
+      <c r="Q46">
+        <v>277.21499999999997</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>1704</v>
+      </c>
+      <c r="T46">
+        <v>485.73200000000003</v>
+      </c>
+      <c r="U46">
+        <v>483.61</v>
+      </c>
+      <c r="V46">
+        <v>-50.317</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>361.44</v>
+      </c>
+      <c r="Y46">
+        <v>162.01400000000001</v>
+      </c>
+      <c r="Z46">
+        <v>-23.027000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-53.442999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>11.651</v>
+      </c>
+      <c r="D47">
+        <v>231.78899999999999</v>
+      </c>
+      <c r="E47">
+        <v>238.34700000000001</v>
+      </c>
+      <c r="F47">
+        <v>80.629000000000005</v>
+      </c>
+      <c r="G47">
+        <v>696.91499999999996</v>
+      </c>
+      <c r="H47">
+        <v>1350.1590000000001</v>
+      </c>
+      <c r="I47">
+        <v>25.39</v>
+      </c>
+      <c r="J47">
+        <v>280.20600000000002</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.5</v>
+      </c>
+      <c r="N47">
+        <v>160.386</v>
+      </c>
+      <c r="O47">
+        <v>846.13499999999999</v>
+      </c>
+      <c r="P47">
+        <v>440.83300000000003</v>
+      </c>
+      <c r="Q47">
+        <v>-89.025000000000006</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>1729</v>
+      </c>
+      <c r="T47">
+        <v>504.024</v>
+      </c>
+      <c r="U47">
+        <v>394.58499999999998</v>
+      </c>
+      <c r="V47">
+        <v>-87.040999999999997</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-17.75</v>
+      </c>
+      <c r="Y47">
+        <v>159.53399999999999</v>
+      </c>
+      <c r="Z47">
+        <v>27.283999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>11.651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>76.742999999999995</v>
+      </c>
+      <c r="D48">
+        <v>304.399</v>
+      </c>
+      <c r="E48">
+        <v>435.38</v>
+      </c>
+      <c r="F48">
+        <v>135.18299999999999</v>
+      </c>
+      <c r="G48">
+        <v>769.19299999999998</v>
+      </c>
+      <c r="H48">
+        <v>1457.5</v>
+      </c>
+      <c r="I48">
+        <v>25.672000000000001</v>
+      </c>
+      <c r="J48">
+        <v>285.49099999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>183.22</v>
+      </c>
+      <c r="O48">
+        <v>862.84299999999996</v>
+      </c>
+      <c r="P48">
+        <v>446.23200000000003</v>
+      </c>
+      <c r="Q48">
+        <v>-222.642</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>1756</v>
+      </c>
+      <c r="T48">
+        <v>594.65700000000004</v>
+      </c>
+      <c r="U48">
+        <v>171.94300000000001</v>
+      </c>
+      <c r="V48">
+        <v>-78.376999999999995</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-5.077</v>
+      </c>
+      <c r="Y48">
+        <v>159.55799999999999</v>
+      </c>
+      <c r="Z48">
+        <v>-126.31</v>
+      </c>
+      <c r="AA48">
+        <v>76.742999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>191.46799999999999</v>
+      </c>
+      <c r="D49">
+        <v>427.68700000000001</v>
+      </c>
+      <c r="E49">
+        <v>601.27099999999996</v>
+      </c>
+      <c r="F49">
+        <v>249.24700000000001</v>
+      </c>
+      <c r="G49">
+        <v>948.60299999999995</v>
+      </c>
+      <c r="H49">
+        <v>1660.615</v>
+      </c>
+      <c r="I49">
+        <v>21.943000000000001</v>
+      </c>
+      <c r="J49">
+        <v>290.959</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>178.56800000000001</v>
+      </c>
+      <c r="O49">
+        <v>854.59100000000001</v>
+      </c>
+      <c r="P49">
+        <v>451.73500000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-52.945</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>1791</v>
+      </c>
+      <c r="T49">
+        <v>806.024</v>
+      </c>
+      <c r="U49">
+        <v>118.998</v>
+      </c>
+      <c r="V49">
+        <v>-2.3820000000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-1.8089999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>159.499</v>
+      </c>
+      <c r="Z49">
+        <v>-38.457000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>191.46799999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>470.40699999999998</v>
+      </c>
+      <c r="D50">
+        <v>414.60199999999998</v>
+      </c>
+      <c r="E50">
+        <v>693.12</v>
+      </c>
+      <c r="F50">
+        <v>203.40899999999999</v>
+      </c>
+      <c r="G50">
+        <v>1206.0119999999999</v>
+      </c>
+      <c r="H50">
+        <v>2080.4899999999998</v>
+      </c>
+      <c r="I50">
+        <v>38.933999999999997</v>
+      </c>
+      <c r="J50">
+        <v>296.51799999999997</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>163.55000000000001</v>
+      </c>
+      <c r="O50">
+        <v>835.10500000000002</v>
+      </c>
+      <c r="P50">
+        <v>458.637</v>
+      </c>
+      <c r="Q50">
+        <v>111.27800000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>1950</v>
+      </c>
+      <c r="T50">
+        <v>1245.385</v>
+      </c>
+      <c r="U50">
+        <v>230.27600000000001</v>
+      </c>
+      <c r="V50">
+        <v>93.185000000000002</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-73.010000000000005</v>
+      </c>
+      <c r="Y50">
+        <v>160.745</v>
+      </c>
+      <c r="Z50">
+        <v>106.29900000000001</v>
+      </c>
+      <c r="AA50">
+        <v>470.40699999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>98.873999999999995</v>
+      </c>
+      <c r="D51">
+        <v>439.66399999999999</v>
+      </c>
+      <c r="E51">
+        <v>802.63800000000003</v>
+      </c>
+      <c r="F51">
+        <v>230.31</v>
+      </c>
+      <c r="G51">
+        <v>1307.1220000000001</v>
+      </c>
+      <c r="H51">
+        <v>2275.998</v>
+      </c>
+      <c r="I51">
+        <v>24.728999999999999</v>
+      </c>
+      <c r="J51">
+        <v>302.26799999999997</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.64900000000000002</v>
+      </c>
+      <c r="N51">
+        <v>197.244</v>
+      </c>
+      <c r="O51">
+        <v>869.65</v>
+      </c>
+      <c r="P51">
+        <v>462.74799999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-49.914000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>1996</v>
+      </c>
+      <c r="T51">
+        <v>1406.348</v>
+      </c>
+      <c r="U51">
+        <v>180.36199999999999</v>
+      </c>
+      <c r="V51">
+        <v>86.248000000000005</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>11.523</v>
+      </c>
+      <c r="Y51">
+        <v>159.00700000000001</v>
+      </c>
+      <c r="Z51">
+        <v>-126.482</v>
+      </c>
+      <c r="AA51">
+        <v>98.873999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>87.376000000000005</v>
+      </c>
+      <c r="D52">
+        <v>457.642</v>
+      </c>
+      <c r="E52">
+        <v>876.01599999999996</v>
+      </c>
+      <c r="F52">
+        <v>230.566</v>
+      </c>
+      <c r="G52">
+        <v>1561.3620000000001</v>
+      </c>
+      <c r="H52">
+        <v>2378.259</v>
+      </c>
+      <c r="I52">
+        <v>24.417999999999999</v>
+      </c>
+      <c r="J52">
+        <v>308.11599999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>203.80199999999999</v>
+      </c>
+      <c r="O52">
+        <v>884.92200000000003</v>
+      </c>
+      <c r="P52">
+        <v>473.30200000000002</v>
+      </c>
+      <c r="Q52">
+        <v>201.31299999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>2039</v>
+      </c>
+      <c r="T52">
+        <v>1493.337</v>
+      </c>
+      <c r="U52">
+        <v>381.67500000000001</v>
+      </c>
+      <c r="V52">
+        <v>128.16399999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-43.481000000000002</v>
+      </c>
+      <c r="Y52">
+        <v>164.392</v>
+      </c>
+      <c r="Z52">
+        <v>151.083</v>
+      </c>
+      <c r="AA52">
+        <v>87.376000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>141.30600000000001</v>
+      </c>
+      <c r="D53">
+        <v>597.02700000000004</v>
+      </c>
+      <c r="E53">
+        <v>992.82399999999996</v>
+      </c>
+      <c r="F53">
+        <v>334.40899999999999</v>
+      </c>
+      <c r="G53">
+        <v>1634.16</v>
+      </c>
+      <c r="H53">
+        <v>2640.415</v>
+      </c>
+      <c r="I53">
+        <v>31.193999999999999</v>
+      </c>
+      <c r="J53">
+        <v>314.16199999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>268.72699999999998</v>
+      </c>
+      <c r="O53">
+        <v>950.24400000000003</v>
+      </c>
+      <c r="P53">
+        <v>482.17500000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-118.464</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>2098</v>
+      </c>
+      <c r="T53">
+        <v>1690.171</v>
+      </c>
+      <c r="U53">
+        <v>263.21100000000001</v>
+      </c>
+      <c r="V53">
+        <v>92.454999999999998</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>167.21899999999999</v>
+      </c>
+      <c r="Z53">
+        <v>-182.761</v>
+      </c>
+      <c r="AA53">
+        <v>141.30600000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>96.805999999999997</v>
+      </c>
+      <c r="D54">
+        <v>610.41200000000003</v>
+      </c>
+      <c r="E54">
+        <v>954.96699999999998</v>
+      </c>
+      <c r="F54">
+        <v>294.15800000000002</v>
+      </c>
+      <c r="G54">
+        <v>1796.934</v>
+      </c>
+      <c r="H54">
+        <v>2951.0129999999999</v>
+      </c>
+      <c r="I54">
+        <v>61.936</v>
+      </c>
+      <c r="J54">
+        <v>320.315</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>298.83499999999998</v>
+      </c>
+      <c r="O54">
+        <v>998.93700000000001</v>
+      </c>
+      <c r="P54">
+        <v>505.63799999999998</v>
+      </c>
+      <c r="Q54">
+        <v>272.39699999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2340</v>
+      </c>
+      <c r="T54">
+        <v>1952.076</v>
+      </c>
+      <c r="U54">
+        <v>535.60799999999995</v>
+      </c>
+      <c r="V54">
+        <v>276.78100000000001</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>105.56399999999999</v>
+      </c>
+      <c r="Y54">
+        <v>184.38399999999999</v>
+      </c>
+      <c r="Z54">
+        <v>-40.972000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>96.805999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>68.305000000000007</v>
+      </c>
+      <c r="D55">
+        <v>625.74</v>
+      </c>
+      <c r="E55">
+        <v>1047.4960000000001</v>
+      </c>
+      <c r="F55">
+        <v>294.78899999999999</v>
+      </c>
+      <c r="G55">
+        <v>1871.049</v>
+      </c>
+      <c r="H55">
+        <v>3260.3960000000002</v>
+      </c>
+      <c r="I55">
+        <v>32.692</v>
+      </c>
+      <c r="J55">
+        <v>326.673</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="N55">
+        <v>305.06799999999998</v>
+      </c>
+      <c r="O55">
+        <v>1049.1479999999999</v>
+      </c>
+      <c r="P55">
+        <v>531.11300000000006</v>
+      </c>
+      <c r="Q55">
+        <v>-73.75</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>2389</v>
+      </c>
+      <c r="T55">
+        <v>2211.248</v>
+      </c>
+      <c r="U55">
+        <v>461.858</v>
+      </c>
+      <c r="V55">
+        <v>53.527000000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>108.95399999999999</v>
+      </c>
+      <c r="Y55">
+        <v>203.38</v>
+      </c>
+      <c r="Z55">
+        <v>-171.40899999999999</v>
+      </c>
+      <c r="AA55">
+        <v>68.305000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>96.350999999999999</v>
+      </c>
+      <c r="D56">
+        <v>665.7</v>
+      </c>
+      <c r="E56">
+        <v>893.92399999999998</v>
+      </c>
+      <c r="F56">
+        <v>324.82</v>
+      </c>
+      <c r="G56">
+        <v>1918.6949999999999</v>
+      </c>
+      <c r="H56">
+        <v>3456.078</v>
+      </c>
+      <c r="I56">
+        <v>47.231000000000002</v>
+      </c>
+      <c r="J56">
+        <v>282.26100000000002</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>351.57799999999997</v>
+      </c>
+      <c r="O56">
+        <v>1087.2360000000001</v>
+      </c>
+      <c r="P56">
+        <v>517.846</v>
+      </c>
+      <c r="Q56">
+        <v>138.27699999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>2469</v>
+      </c>
+      <c r="T56">
+        <v>2368.8420000000001</v>
+      </c>
+      <c r="U56">
+        <v>600.13499999999999</v>
+      </c>
+      <c r="V56">
+        <v>336.41199999999998</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-80.012</v>
+      </c>
+      <c r="Y56">
+        <v>234.52500000000001</v>
+      </c>
+      <c r="Z56">
+        <v>-47.25</v>
+      </c>
+      <c r="AA56">
+        <v>96.350999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>83.375</v>
+      </c>
+      <c r="D57">
+        <v>725.78800000000001</v>
+      </c>
+      <c r="E57">
+        <v>927.25400000000002</v>
+      </c>
+      <c r="F57">
+        <v>332.46699999999998</v>
+      </c>
+      <c r="G57">
+        <v>2200.5120000000002</v>
+      </c>
+      <c r="H57">
+        <v>3739.4189999999999</v>
+      </c>
+      <c r="I57">
+        <v>47.341999999999999</v>
+      </c>
+      <c r="J57">
+        <v>287.95</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>410.2</v>
+      </c>
+      <c r="O57">
+        <v>1187.6310000000001</v>
+      </c>
+      <c r="P57">
+        <v>565.31399999999996</v>
+      </c>
+      <c r="Q57">
+        <v>46.418999999999997</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>2551</v>
+      </c>
+      <c r="T57">
+        <v>2551.788</v>
+      </c>
+      <c r="U57">
+        <v>646.55399999999997</v>
+      </c>
+      <c r="V57">
+        <v>164.321</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>5.1660000000000004</v>
+      </c>
+      <c r="Y57">
+        <v>276.11200000000002</v>
+      </c>
+      <c r="Z57">
+        <v>-43.298999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>83.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>90.094999999999999</v>
+      </c>
+      <c r="D58">
+        <v>802.32899999999995</v>
+      </c>
+      <c r="E58">
+        <v>976.37199999999996</v>
+      </c>
+      <c r="F58">
+        <v>391.11</v>
+      </c>
+      <c r="G58">
+        <v>2084.759</v>
+      </c>
+      <c r="H58">
+        <v>3837.672</v>
+      </c>
+      <c r="I58">
+        <v>99.507999999999996</v>
+      </c>
+      <c r="J58">
+        <v>146.773</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>654.66</v>
+      </c>
+      <c r="O58">
+        <v>1287.421</v>
+      </c>
+      <c r="P58">
+        <v>457.71100000000001</v>
+      </c>
+      <c r="Q58">
+        <v>2.165</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2925</v>
+      </c>
+      <c r="T58">
+        <v>2550.2510000000002</v>
+      </c>
+      <c r="U58">
+        <v>648.71900000000005</v>
+      </c>
+      <c r="V58">
+        <v>198.17500000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-252.655</v>
+      </c>
+      <c r="Y58">
+        <v>310.93799999999999</v>
+      </c>
+      <c r="Z58">
+        <v>174.18700000000001</v>
+      </c>
+      <c r="AA58">
+        <v>90.094999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>76.021000000000001</v>
+      </c>
+      <c r="D59">
+        <v>869.61199999999997</v>
+      </c>
+      <c r="E59">
+        <v>1338.462</v>
+      </c>
+      <c r="F59">
+        <v>442.54399999999998</v>
+      </c>
+      <c r="G59">
+        <v>2310.7139999999999</v>
+      </c>
+      <c r="H59">
+        <v>4198.5730000000003</v>
+      </c>
+      <c r="I59">
+        <v>90.600999999999999</v>
+      </c>
+      <c r="J59">
+        <v>144.08199999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-16.686</v>
+      </c>
+      <c r="N59">
+        <v>536.13400000000001</v>
+      </c>
+      <c r="O59">
+        <v>1227.143</v>
+      </c>
+      <c r="P59">
+        <v>472.476</v>
+      </c>
+      <c r="Q59">
+        <v>-140.81200000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>3066</v>
+      </c>
+      <c r="T59">
+        <v>2971.43</v>
+      </c>
+      <c r="U59">
+        <v>507.90699999999998</v>
+      </c>
+      <c r="V59">
+        <v>-101.727</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>90.396000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>328.39400000000001</v>
+      </c>
+      <c r="Z59">
+        <v>-15.319000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>76.021000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>194.643</v>
+      </c>
+      <c r="D60">
+        <v>998.61699999999996</v>
+      </c>
+      <c r="E60">
+        <v>1395.125</v>
+      </c>
+      <c r="F60">
+        <v>519.447</v>
+      </c>
+      <c r="G60">
+        <v>2283.3409999999999</v>
+      </c>
+      <c r="H60">
+        <v>4526.97</v>
+      </c>
+      <c r="I60">
+        <v>130.01599999999999</v>
+      </c>
+      <c r="J60">
+        <v>30.36</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>601.54200000000003</v>
+      </c>
+      <c r="O60">
+        <v>1188.5119999999999</v>
+      </c>
+      <c r="P60">
+        <v>388.04700000000003</v>
+      </c>
+      <c r="Q60">
+        <v>-117.35299999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>3320</v>
+      </c>
+      <c r="T60">
+        <v>3338.4580000000001</v>
+      </c>
+      <c r="U60">
+        <v>390.55399999999997</v>
+      </c>
+      <c r="V60">
+        <v>257.83100000000002</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-3.5350000000000001</v>
+      </c>
+      <c r="Y60">
+        <v>357.68700000000001</v>
+      </c>
+      <c r="Z60">
+        <v>-131.756</v>
+      </c>
+      <c r="AA60">
+        <v>194.643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>210.398</v>
+      </c>
+      <c r="D61">
+        <v>1137.422</v>
+      </c>
+      <c r="E61">
+        <v>1439.3150000000001</v>
+      </c>
+      <c r="F61">
+        <v>602.41499999999996</v>
+      </c>
+      <c r="G61">
+        <v>2675.64</v>
+      </c>
+      <c r="H61">
+        <v>5182.915</v>
+      </c>
+      <c r="I61">
+        <v>106.917</v>
+      </c>
+      <c r="J61">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>734.99</v>
+      </c>
+      <c r="O61">
+        <v>1886.048</v>
+      </c>
+      <c r="P61">
+        <v>394.86700000000002</v>
+      </c>
+      <c r="Q61">
+        <v>264.03300000000002</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>3535</v>
+      </c>
+      <c r="T61">
+        <v>3296.8670000000002</v>
+      </c>
+      <c r="U61">
+        <v>654.58699999999999</v>
+      </c>
+      <c r="V61">
+        <v>892.85299999999995</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-345.649</v>
+      </c>
+      <c r="Y61">
+        <v>364.14400000000001</v>
+      </c>
+      <c r="Z61">
+        <v>-137.072</v>
+      </c>
+      <c r="AA61">
+        <v>210.398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>154.994</v>
+      </c>
+      <c r="D62">
+        <v>1098.077</v>
+      </c>
+      <c r="E62">
+        <v>1467.7929999999999</v>
+      </c>
+      <c r="F62">
+        <v>526.03599999999994</v>
+      </c>
+      <c r="G62">
+        <v>2915.0949999999998</v>
+      </c>
+      <c r="H62">
+        <v>5609.1319999999996</v>
+      </c>
+      <c r="I62">
+        <v>140.96199999999999</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>811.16200000000003</v>
+      </c>
+      <c r="O62">
+        <v>1954.2950000000001</v>
+      </c>
+      <c r="P62">
+        <v>375.51</v>
+      </c>
+      <c r="Q62">
+        <v>154.51499999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>4300</v>
+      </c>
+      <c r="T62">
+        <v>3654.837</v>
+      </c>
+      <c r="U62">
+        <v>809.10199999999998</v>
+      </c>
+      <c r="V62">
+        <v>281.82299999999998</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-4.008</v>
+      </c>
+      <c r="Y62">
+        <v>362.91899999999998</v>
+      </c>
+      <c r="Z62">
+        <v>54.478999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>154.994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>181.38499999999999</v>
+      </c>
+      <c r="D63">
+        <v>1200.8489999999999</v>
+      </c>
+      <c r="E63">
+        <v>1865.221</v>
+      </c>
+      <c r="F63">
+        <v>618.98500000000001</v>
+      </c>
+      <c r="G63">
+        <v>3133.3789999999999</v>
+      </c>
+      <c r="H63">
+        <v>5904.46</v>
+      </c>
+      <c r="I63">
+        <v>120.595</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-2.3370000000000002</v>
+      </c>
+      <c r="N63">
+        <v>919.72400000000005</v>
+      </c>
+      <c r="O63">
+        <v>2139.3780000000002</v>
+      </c>
+      <c r="P63">
+        <v>375.738</v>
+      </c>
+      <c r="Q63">
+        <v>-204.88800000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>4473</v>
+      </c>
+      <c r="T63">
+        <v>3765.0819999999999</v>
+      </c>
+      <c r="U63">
+        <v>604.21400000000006</v>
+      </c>
+      <c r="V63">
+        <v>44.988999999999997</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-206.19200000000001</v>
+      </c>
+      <c r="Y63">
+        <v>362.23</v>
+      </c>
+      <c r="Z63">
+        <v>60.408999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>181.38499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>196.21799999999999</v>
+      </c>
+      <c r="D64">
+        <v>1212.6289999999999</v>
+      </c>
+      <c r="E64">
+        <v>1751.971</v>
+      </c>
+      <c r="F64">
+        <v>583.66600000000005</v>
+      </c>
+      <c r="G64">
+        <v>3209.2249999999999</v>
+      </c>
+      <c r="H64">
+        <v>6204.9059999999999</v>
+      </c>
+      <c r="I64">
+        <v>101.721</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>951.56299999999999</v>
+      </c>
+      <c r="O64">
+        <v>2128.4</v>
+      </c>
+      <c r="P64">
+        <v>365.21800000000002</v>
+      </c>
+      <c r="Q64">
+        <v>42.293999999999997</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>4615</v>
+      </c>
+      <c r="T64">
+        <v>4076.5059999999999</v>
+      </c>
+      <c r="U64">
+        <v>646.50800000000004</v>
+      </c>
+      <c r="V64">
+        <v>399.49900000000002</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-31.195</v>
+      </c>
+      <c r="Y64">
+        <v>361.52300000000002</v>
+      </c>
+      <c r="Z64">
+        <v>-187.17400000000001</v>
+      </c>
+      <c r="AA64">
+        <v>196.21799999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>264.80399999999997</v>
+      </c>
+      <c r="D65">
+        <v>1220.1220000000001</v>
+      </c>
+      <c r="E65">
+        <v>1643.8720000000001</v>
+      </c>
+      <c r="F65">
+        <v>632.84699999999998</v>
+      </c>
+      <c r="G65">
+        <v>3501.6889999999999</v>
+      </c>
+      <c r="H65">
+        <v>6828.0190000000002</v>
+      </c>
+      <c r="I65">
+        <v>124.497</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>961.18499999999995</v>
+      </c>
+      <c r="O65">
+        <v>2336.7719999999999</v>
+      </c>
+      <c r="P65">
+        <v>385.81400000000002</v>
+      </c>
+      <c r="Q65">
+        <v>273.851</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>4786</v>
+      </c>
+      <c r="T65">
+        <v>4491.2470000000003</v>
+      </c>
+      <c r="U65">
+        <v>920.35900000000004</v>
+      </c>
+      <c r="V65">
+        <v>651.029</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>28.675000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>382.22800000000001</v>
+      </c>
+      <c r="Z65">
+        <v>-287.29700000000003</v>
+      </c>
+      <c r="AA65">
+        <v>264.80399999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>253.11500000000001</v>
+      </c>
+      <c r="D66">
+        <v>1226.827</v>
+      </c>
+      <c r="E66">
+        <v>1611.62</v>
+      </c>
+      <c r="F66">
+        <v>672.94</v>
+      </c>
+      <c r="G66">
+        <v>3180.1880000000001</v>
+      </c>
+      <c r="H66">
+        <v>6973.4660000000003</v>
+      </c>
+      <c r="I66">
+        <v>134.98400000000001</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1241.4949999999999</v>
+      </c>
+      <c r="O66">
+        <v>2524.221</v>
+      </c>
+      <c r="P66">
+        <v>481.12599999999998</v>
+      </c>
+      <c r="Q66">
+        <v>-385.15600000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>5400</v>
+      </c>
+      <c r="T66">
+        <v>4449.2449999999999</v>
+      </c>
+      <c r="U66">
+        <v>535.20299999999997</v>
+      </c>
+      <c r="V66">
+        <v>377.87900000000002</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-491.67899999999997</v>
+      </c>
+      <c r="Y66">
+        <v>351.56900000000002</v>
+      </c>
+      <c r="Z66">
+        <v>-120.901</v>
+      </c>
+      <c r="AA66">
+        <v>253.11500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>248.93100000000001</v>
+      </c>
+      <c r="D67">
+        <v>1318.991</v>
+      </c>
+      <c r="E67">
+        <v>1749.548</v>
+      </c>
+      <c r="F67">
+        <v>727.38800000000003</v>
+      </c>
+      <c r="G67">
+        <v>3669.2629999999999</v>
+      </c>
+      <c r="H67">
+        <v>7817.3649999999998</v>
+      </c>
+      <c r="I67">
+        <v>141.80099999999999</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-12.861000000000001</v>
+      </c>
+      <c r="N67">
+        <v>1308.271</v>
+      </c>
+      <c r="O67">
+        <v>2951.3440000000001</v>
+      </c>
+      <c r="P67">
+        <v>707.60699999999997</v>
+      </c>
+      <c r="Q67">
+        <v>276.57</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>5505</v>
+      </c>
+      <c r="T67">
+        <v>4866.0209999999997</v>
+      </c>
+      <c r="U67">
+        <v>811.77300000000002</v>
+      </c>
+      <c r="V67">
+        <v>355.90100000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>60.811999999999998</v>
+      </c>
+      <c r="Y67">
+        <v>700.40700000000004</v>
+      </c>
+      <c r="Z67">
+        <v>-89.682000000000002</v>
+      </c>
+      <c r="AA67">
+        <v>248.93100000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>387.74400000000003</v>
+      </c>
+      <c r="D68">
+        <v>1470.116</v>
+      </c>
+      <c r="E68">
+        <v>1844.547</v>
+      </c>
+      <c r="F68">
+        <v>857.22</v>
+      </c>
+      <c r="G68">
+        <v>3860.0509999999999</v>
+      </c>
+      <c r="H68">
+        <v>8106.3729999999996</v>
+      </c>
+      <c r="I68">
+        <v>151.37200000000001</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1029.0170000000001</v>
+      </c>
+      <c r="O68">
+        <v>2585.6350000000002</v>
+      </c>
+      <c r="P68">
+        <v>701.173</v>
+      </c>
+      <c r="Q68">
+        <v>-67.459999999999994</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>5541</v>
+      </c>
+      <c r="T68">
+        <v>5520.7380000000003</v>
+      </c>
+      <c r="U68">
+        <v>744.31299999999999</v>
+      </c>
+      <c r="V68">
+        <v>-30.57</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>133.51900000000001</v>
+      </c>
+      <c r="Y68">
+        <v>701.173</v>
+      </c>
+      <c r="Z68">
+        <v>-115.56</v>
+      </c>
+      <c r="AA68">
+        <v>387.74400000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>388.31700000000001</v>
+      </c>
+      <c r="D69">
+        <v>1500.673</v>
+      </c>
+      <c r="E69">
+        <v>1971.4490000000001</v>
+      </c>
+      <c r="F69">
+        <v>866.69200000000001</v>
+      </c>
+      <c r="G69">
+        <v>4135.7420000000002</v>
+      </c>
+      <c r="H69">
+        <v>8701.2150000000001</v>
+      </c>
+      <c r="I69">
+        <v>153.946</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1138.6279999999999</v>
+      </c>
+      <c r="O69">
+        <v>2649.6219999999998</v>
+      </c>
+      <c r="P69">
+        <v>702.31700000000001</v>
+      </c>
+      <c r="Q69">
+        <v>47.752000000000002</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>5653</v>
+      </c>
+      <c r="T69">
+        <v>6051.5929999999998</v>
+      </c>
+      <c r="U69">
+        <v>792.06500000000005</v>
+      </c>
+      <c r="V69">
+        <v>414.83199999999999</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-8.1959999999999997</v>
+      </c>
+      <c r="Y69">
+        <v>702.31700000000001</v>
+      </c>
+      <c r="Z69">
+        <v>-299.23099999999999</v>
+      </c>
+      <c r="AA69">
+        <v>388.31700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>173.50800000000001</v>
+      </c>
+      <c r="D70">
+        <v>1582.42</v>
+      </c>
+      <c r="E70">
+        <v>2045.6</v>
+      </c>
+      <c r="F70">
+        <v>948.7</v>
+      </c>
+      <c r="G70">
+        <v>4335</v>
+      </c>
+      <c r="H70">
+        <v>8764.2999999999993</v>
+      </c>
+      <c r="I70">
+        <v>178.2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1135.5</v>
+      </c>
+      <c r="O70">
+        <v>2620.1999999999998</v>
+      </c>
+      <c r="P70">
+        <v>703.5</v>
+      </c>
+      <c r="Q70">
+        <v>20.638000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>6200</v>
+      </c>
+      <c r="T70">
+        <v>6144.1</v>
+      </c>
+      <c r="U70">
+        <v>812.7</v>
+      </c>
+      <c r="V70">
+        <v>566.93700000000001</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-210.535</v>
+      </c>
+      <c r="Y70">
+        <v>703.5</v>
+      </c>
+      <c r="Z70">
+        <v>-228.12700000000001</v>
+      </c>
+      <c r="AA70">
+        <v>173.50800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>478</v>
+      </c>
+      <c r="D71">
+        <v>1511.5</v>
+      </c>
+      <c r="E71">
+        <v>1984.557</v>
+      </c>
+      <c r="F71">
+        <v>898</v>
+      </c>
+      <c r="G71">
+        <v>4544.732</v>
+      </c>
+      <c r="H71">
+        <v>9372.6959999999999</v>
+      </c>
+      <c r="I71">
+        <v>207.61099999999999</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1265.74</v>
+      </c>
+      <c r="O71">
+        <v>2805.0520000000001</v>
+      </c>
+      <c r="P71">
+        <v>704.64499999999998</v>
+      </c>
+      <c r="Q71">
+        <v>206.8</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>6401</v>
+      </c>
+      <c r="T71">
+        <v>6567.6440000000002</v>
+      </c>
+      <c r="U71">
+        <v>1019.491</v>
+      </c>
+      <c r="V71">
+        <v>618.79999999999995</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>13.4</v>
+      </c>
+      <c r="Y71">
+        <v>704.64499999999998</v>
+      </c>
+      <c r="Z71">
+        <v>-346</v>
+      </c>
+      <c r="AA71">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>551.4</v>
+      </c>
+      <c r="D72">
+        <v>1608</v>
+      </c>
+      <c r="E72">
+        <v>2074.7510000000002</v>
+      </c>
+      <c r="F72">
+        <v>987</v>
+      </c>
+      <c r="G72">
+        <v>4814.9170000000004</v>
+      </c>
+      <c r="H72">
+        <v>9951.98</v>
+      </c>
+      <c r="I72">
+        <v>171.90600000000001</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1331.19</v>
+      </c>
+      <c r="O72">
+        <v>2765.5540000000001</v>
+      </c>
+      <c r="P72">
+        <v>705.90300000000002</v>
+      </c>
+      <c r="Q72">
+        <v>-101.6</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>6570</v>
+      </c>
+      <c r="T72">
+        <v>7186.4260000000004</v>
+      </c>
+      <c r="U72">
+        <v>917.87599999999998</v>
+      </c>
+      <c r="V72">
+        <v>394.6</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-11.2</v>
+      </c>
+      <c r="Y72">
+        <v>705.90300000000002</v>
+      </c>
+      <c r="Z72">
+        <v>-373</v>
+      </c>
+      <c r="AA72">
+        <v>551.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>594.6</v>
+      </c>
+      <c r="D73">
+        <v>1663.5</v>
+      </c>
+      <c r="E73">
+        <v>2290.9299999999998</v>
+      </c>
+      <c r="F73">
+        <v>996.1</v>
+      </c>
+      <c r="G73">
+        <v>5719.5829999999996</v>
+      </c>
+      <c r="H73">
+        <v>10805.612999999999</v>
+      </c>
+      <c r="I73">
+        <v>172.36099999999999</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1417.23</v>
+      </c>
+      <c r="O73">
+        <v>2937.3130000000001</v>
+      </c>
+      <c r="P73">
+        <v>707.20299999999997</v>
+      </c>
+      <c r="Q73">
+        <v>169.9</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>6763</v>
+      </c>
+      <c r="T73">
+        <v>7868.3</v>
+      </c>
+      <c r="U73">
+        <v>1087.8430000000001</v>
+      </c>
+      <c r="V73">
+        <v>452.9</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>3.7</v>
+      </c>
+      <c r="Y73">
+        <v>707.20299999999997</v>
+      </c>
+      <c r="Z73">
+        <v>-170.5</v>
+      </c>
+      <c r="AA73">
+        <v>594.70000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>820.4</v>
+      </c>
+      <c r="D74">
+        <v>1927.8</v>
+      </c>
+      <c r="E74">
+        <v>2272</v>
+      </c>
+      <c r="F74">
+        <v>1209.4000000000001</v>
+      </c>
+      <c r="G74">
+        <v>6447.6</v>
+      </c>
+      <c r="H74">
+        <v>11734.5</v>
+      </c>
+      <c r="I74">
+        <v>218.2</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1442.8</v>
+      </c>
+      <c r="O74">
+        <v>2977.2</v>
+      </c>
+      <c r="P74">
+        <v>708.5</v>
+      </c>
+      <c r="Q74">
+        <v>379.9</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7400</v>
+      </c>
+      <c r="T74">
+        <v>8757.2999999999993</v>
+      </c>
+      <c r="U74">
+        <v>1467.7</v>
+      </c>
+      <c r="V74">
+        <v>728.8</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-83</v>
+      </c>
+      <c r="Y74">
+        <v>708.5</v>
+      </c>
+      <c r="Z74">
+        <v>-180.4</v>
+      </c>
+      <c r="AA74">
+        <v>820.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>461.1</v>
+      </c>
+      <c r="D75">
+        <v>1372.6</v>
+      </c>
+      <c r="E75">
+        <v>2337.4</v>
+      </c>
+      <c r="F75">
+        <v>714.4</v>
+      </c>
+      <c r="G75">
+        <v>6928.6</v>
+      </c>
+      <c r="H75">
+        <v>12854.8</v>
+      </c>
+      <c r="I75">
+        <v>239.6</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1511.4</v>
+      </c>
+      <c r="O75">
+        <v>3410.1</v>
+      </c>
+      <c r="P75">
+        <v>739.3</v>
+      </c>
+      <c r="Q75">
+        <v>240.8</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>7448</v>
+      </c>
+      <c r="T75">
+        <v>9444.7000000000007</v>
+      </c>
+      <c r="U75">
+        <v>1708.5</v>
+      </c>
+      <c r="V75">
+        <v>897</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>119.9</v>
+      </c>
+      <c r="Y75">
+        <v>733.1</v>
+      </c>
+      <c r="Z75">
+        <v>-701.8</v>
+      </c>
+      <c r="AA75">
+        <v>461.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>193.1</v>
+      </c>
+      <c r="D76">
+        <v>1577.8</v>
+      </c>
+      <c r="E76">
+        <v>2492.6</v>
+      </c>
+      <c r="F76">
+        <v>546.5</v>
+      </c>
+      <c r="G76">
+        <v>6651</v>
+      </c>
+      <c r="H76">
+        <v>13173.6</v>
+      </c>
+      <c r="I76">
+        <v>244</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1713.1</v>
+      </c>
+      <c r="O76">
+        <v>3417.7</v>
+      </c>
+      <c r="P76">
+        <v>739</v>
+      </c>
+      <c r="Q76">
+        <v>-663</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>7549</v>
+      </c>
+      <c r="T76">
+        <v>9755.9</v>
+      </c>
+      <c r="U76">
+        <v>1045.5</v>
+      </c>
+      <c r="V76">
+        <v>188.3</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-15.3</v>
+      </c>
+      <c r="Y76">
+        <v>735</v>
+      </c>
+      <c r="Z76">
+        <v>-741.4</v>
+      </c>
+      <c r="AA76">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>669.6</v>
+      </c>
+      <c r="D77">
+        <v>1743.7</v>
+      </c>
+      <c r="E77">
+        <v>2696</v>
+      </c>
+      <c r="F77">
+        <v>992.2</v>
+      </c>
+      <c r="G77">
+        <v>7109.1</v>
+      </c>
+      <c r="H77">
+        <v>13939.3</v>
+      </c>
+      <c r="I77">
+        <v>335.6</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1765.4</v>
+      </c>
+      <c r="O77">
+        <v>3434.9</v>
+      </c>
+      <c r="P77">
+        <v>738</v>
+      </c>
+      <c r="Q77">
+        <v>339.3</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>7674</v>
+      </c>
+      <c r="T77">
+        <v>10504.4</v>
+      </c>
+      <c r="U77">
+        <v>1384.8</v>
+      </c>
+      <c r="V77">
+        <v>557.29999999999995</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-11</v>
+      </c>
+      <c r="Y77">
+        <v>736.1</v>
+      </c>
+      <c r="Z77">
+        <v>-85.3</v>
+      </c>
+      <c r="AA77">
+        <v>669.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>792</v>
+      </c>
+      <c r="D78">
+        <v>1863.5</v>
+      </c>
+      <c r="E78">
+        <v>2693.4</v>
+      </c>
+      <c r="F78">
+        <v>1089.4000000000001</v>
+      </c>
+      <c r="G78">
+        <v>7689.1</v>
+      </c>
+      <c r="H78">
+        <v>14805.2</v>
+      </c>
+      <c r="I78">
+        <v>418.1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2096.6</v>
+      </c>
+      <c r="O78">
+        <v>3715.5</v>
+      </c>
+      <c r="P78">
+        <v>713.9</v>
+      </c>
+      <c r="Q78">
+        <v>233</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>8100</v>
+      </c>
+      <c r="T78">
+        <v>11089.7</v>
+      </c>
+      <c r="U78">
+        <v>1617.8</v>
+      </c>
+      <c r="V78">
+        <v>787.4</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-345.7</v>
+      </c>
+      <c r="Y78">
+        <v>713.9</v>
+      </c>
+      <c r="Z78">
+        <v>-69.7</v>
+      </c>
+      <c r="AA78">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>624.6</v>
+      </c>
+      <c r="D79">
+        <v>1828.2</v>
+      </c>
+      <c r="E79">
+        <v>2833.8</v>
+      </c>
+      <c r="F79">
+        <v>1027</v>
+      </c>
+      <c r="G79">
+        <v>8644.1</v>
+      </c>
+      <c r="H79">
+        <v>15757.5</v>
+      </c>
+      <c r="I79">
+        <v>347.8</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2055.1999999999998</v>
+      </c>
+      <c r="O79">
+        <v>3624.5</v>
+      </c>
+      <c r="P79">
+        <v>715.2</v>
+      </c>
+      <c r="Q79">
+        <v>590.4</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>8030</v>
+      </c>
+      <c r="T79">
+        <v>12133</v>
+      </c>
+      <c r="U79">
+        <v>2208.1999999999998</v>
+      </c>
+      <c r="V79">
+        <v>698</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>335.6</v>
+      </c>
+      <c r="Y79">
+        <v>715.2</v>
+      </c>
+      <c r="Z79">
+        <v>-273.10000000000002</v>
+      </c>
+      <c r="AA79">
+        <v>624.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>897.3</v>
+      </c>
+      <c r="D80">
+        <v>1952</v>
+      </c>
+      <c r="E80">
+        <v>2654.5</v>
+      </c>
+      <c r="F80">
+        <v>954.5</v>
+      </c>
+      <c r="G80">
+        <v>7860.2</v>
+      </c>
+      <c r="H80">
+        <v>14428.7</v>
+      </c>
+      <c r="I80">
+        <v>380.1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1500</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3702.4</v>
+      </c>
+      <c r="O80">
+        <v>5371.3</v>
+      </c>
+      <c r="P80">
+        <v>2215.9</v>
+      </c>
+      <c r="Q80">
+        <v>-216</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>8142</v>
+      </c>
+      <c r="T80">
+        <v>9057.4</v>
+      </c>
+      <c r="U80">
+        <v>1992.2</v>
+      </c>
+      <c r="V80">
+        <v>943.4</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-2612.8000000000002</v>
+      </c>
+      <c r="Y80">
+        <v>715.9</v>
+      </c>
+      <c r="Z80">
+        <v>1583.3</v>
+      </c>
+      <c r="AA80">
+        <v>897.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>842.1</v>
+      </c>
+      <c r="D81">
+        <v>2294</v>
+      </c>
+      <c r="E81">
+        <v>3879.1</v>
+      </c>
+      <c r="F81">
+        <v>1335.4</v>
+      </c>
+      <c r="G81">
+        <v>9097.6</v>
+      </c>
+      <c r="H81">
+        <v>16084</v>
+      </c>
+      <c r="I81">
+        <v>443.1</v>
+      </c>
+      <c r="J81">
+        <v>1978.3</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2337.8000000000002</v>
+      </c>
+      <c r="O81">
+        <v>5958.5</v>
+      </c>
+      <c r="P81">
+        <v>2694.8</v>
+      </c>
+      <c r="Q81">
+        <v>-418.1</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>8314</v>
+      </c>
+      <c r="T81">
+        <v>10125.5</v>
+      </c>
+      <c r="U81">
+        <v>1573</v>
+      </c>
+      <c r="V81">
+        <v>-254.3</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>612</v>
+      </c>
+      <c r="Y81">
+        <v>716.5</v>
+      </c>
+      <c r="Z81">
+        <v>-622.6</v>
+      </c>
+      <c r="AA81">
+        <v>842.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1149.2</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2236.1999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>3880.1</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1138.5999999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>9779.1</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>17163.3</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>475.5</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1978.5</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2697.4</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6138</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2707.8</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>620.70000000000005</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>9123</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11025.3</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2193.6999999999998</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1231</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-305.3</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>717.2</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-143.6</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1149.2</v>
       </c>
     </row>
